--- a/data/analysis/elections.xlsx
+++ b/data/analysis/elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE58E4-AD97-F546-9BA0-7654B57035A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8E118-05E0-5946-AFD2-D017BE81B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{4D9468ED-8B83-C14F-97C4-1642043F26B9}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{4D9468ED-8B83-C14F-97C4-1642043F26B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FBDF415A-AAE6-C646-AF30-F94549D73F0F}" name="elections" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/ushouse/data/analysis/elections.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/ushouse/data/analysis/elections.csv" comma="1">
       <textFields count="13">
         <textField type="text"/>
         <textField type="text"/>
@@ -442,6 +442,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -479,11 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,10 +810,10 @@
   <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B512" sqref="B512"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,10 +826,10 @@
     <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -861,10 +866,10 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -902,10 +907,10 @@
       <c r="K2">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>0.43070599999999998</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -943,10 +948,10 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>0.19206400000000001</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -984,10 +989,10 @@
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>0.39491900000000002</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -1025,10 +1030,10 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>0.49635499999999999</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -1066,10 +1071,10 @@
       <c r="K6">
         <v>52</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>0.55198499999999995</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.61538499999999996</v>
       </c>
     </row>
@@ -1107,10 +1112,10 @@
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>0.41748299999999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -1148,10 +1153,10 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.54207499999999997</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -1189,10 +1194,10 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>0.31298300000000001</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1230,10 +1235,10 @@
       <c r="K10">
         <v>23</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>0.45548499999999997</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>0.34782600000000002</v>
       </c>
     </row>
@@ -1271,10 +1276,10 @@
       <c r="K11">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>0.40114100000000003</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -1312,10 +1317,10 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>0.66624799999999995</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1353,10 +1358,10 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.299674</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1394,10 +1399,10 @@
       <c r="K14">
         <v>20</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>0.54515100000000005</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -1435,10 +1440,10 @@
       <c r="K15">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>0.45524999999999999</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -1476,10 +1481,10 @@
       <c r="K16">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>0.42566599999999999</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -1517,10 +1522,10 @@
       <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>0.33352500000000002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -1558,10 +1563,10 @@
       <c r="K18">
         <v>6</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>0.44206800000000002</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -1599,10 +1604,10 @@
       <c r="K19">
         <v>7</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <v>0.39299899999999999</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -1640,10 +1645,10 @@
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>0.67504299999999995</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1681,10 +1686,10 @@
       <c r="K21">
         <v>8</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>0.553365</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -1722,10 +1727,10 @@
       <c r="K22">
         <v>10</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="5">
         <v>0.74415100000000001</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1763,10 +1768,10 @@
       <c r="K23">
         <v>16</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <v>0.54926600000000003</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <v>0.5625</v>
       </c>
     </row>
@@ -1804,10 +1809,10 @@
       <c r="K24">
         <v>8</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>0.55405700000000002</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -1845,10 +1850,10 @@
       <c r="K25">
         <v>5</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <v>0.51410699999999998</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1886,10 +1891,10 @@
       <c r="K26">
         <v>9</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <v>0.50006499999999998</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -1927,10 +1932,10 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="5">
         <v>0.47328399999999998</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1968,10 +1973,10 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="5">
         <v>0.26794400000000002</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2009,10 +2014,10 @@
       <c r="K29">
         <v>2</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="5">
         <v>0.40459800000000001</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -2050,10 +2055,10 @@
       <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="5">
         <v>0.44055100000000003</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2091,10 +2096,10 @@
       <c r="K31">
         <v>13</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="5">
         <v>0.52538600000000002</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -2132,10 +2137,10 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <v>0.52249999999999996</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -2173,10 +2178,10 @@
       <c r="K33">
         <v>31</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="5">
         <v>0.57314600000000004</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="5">
         <v>0.61290299999999998</v>
       </c>
     </row>
@@ -2214,10 +2219,10 @@
       <c r="K34">
         <v>12</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <v>0.47149600000000003</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="5">
         <v>0.41666700000000001</v>
       </c>
     </row>
@@ -2255,10 +2260,10 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="5">
         <v>0.54296</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2296,10 +2301,10 @@
       <c r="K36">
         <v>19</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="5">
         <v>0.47587800000000002</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="5">
         <v>0.42105300000000001</v>
       </c>
     </row>
@@ -2337,10 +2342,10 @@
       <c r="K37">
         <v>6</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <v>0.36072799999999999</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -2378,10 +2383,10 @@
       <c r="K38">
         <v>5</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="5">
         <v>0.56557100000000005</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -2419,10 +2424,10 @@
       <c r="K39">
         <v>21</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="5">
         <v>0.50539800000000001</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="5">
         <v>0.47619</v>
       </c>
     </row>
@@ -2460,10 +2465,10 @@
       <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="5">
         <v>0.73432200000000003</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2501,10 +2506,10 @@
       <c r="K41">
         <v>6</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="5">
         <v>0.44476599999999999</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -2542,10 +2547,10 @@
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="5">
         <v>0.253135</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2583,10 +2588,10 @@
       <c r="K43">
         <v>9</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="5">
         <v>0.55095300000000003</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -2624,10 +2629,10 @@
       <c r="K44">
         <v>30</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="5">
         <v>0.48968400000000001</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="5">
         <v>0.56666700000000003</v>
       </c>
     </row>
@@ -2665,10 +2670,10 @@
       <c r="K45">
         <v>3</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="5">
         <v>0.41670499999999999</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -2706,6 +2711,12 @@
       <c r="K46">
         <v>1</v>
       </c>
+      <c r="L46" s="5">
+        <v>0.22300600000000001</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2741,10 +2752,10 @@
       <c r="K47">
         <v>11</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="5">
         <v>0.49321599999999999</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -2782,10 +2793,10 @@
       <c r="K48">
         <v>9</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="5">
         <v>0.53547500000000003</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -2823,10 +2834,10 @@
       <c r="K49">
         <v>3</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="5">
         <v>0.63350700000000004</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -2864,10 +2875,10 @@
       <c r="K50">
         <v>9</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="5">
         <v>0.47527700000000001</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -2905,10 +2916,10 @@
       <c r="K51">
         <v>1</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="5">
         <v>0.29946800000000001</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2946,10 +2957,10 @@
       <c r="K52">
         <v>7</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="5">
         <v>0.45827800000000002</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -2987,10 +2998,10 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="5">
         <v>0.188273</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3028,10 +3039,10 @@
       <c r="K54">
         <v>8</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="5">
         <v>0.409109</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -3069,10 +3080,10 @@
       <c r="K55">
         <v>4</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="5">
         <v>0.56757500000000005</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -3110,10 +3121,10 @@
       <c r="K56">
         <v>53</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="5">
         <v>0.53482099999999999</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="5">
         <v>0.62264200000000003</v>
       </c>
     </row>
@@ -3151,10 +3162,10 @@
       <c r="K57">
         <v>7</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="5">
         <v>0.43909100000000001</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -3192,10 +3203,10 @@
       <c r="K58">
         <v>5</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="5">
         <v>0.52207899999999996</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -3233,10 +3244,10 @@
       <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="5">
         <v>0.27041999999999999</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3274,10 +3285,10 @@
       <c r="K60">
         <v>25</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="5">
         <v>0.43500800000000001</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -3315,10 +3326,10 @@
       <c r="K61">
         <v>13</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="5">
         <v>0.42184100000000002</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="5">
         <v>0.38461499999999998</v>
       </c>
     </row>
@@ -3356,10 +3367,10 @@
       <c r="K62">
         <v>2</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="5">
         <v>0.66567200000000004</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3397,10 +3408,10 @@
       <c r="K63">
         <v>2</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="5">
         <v>0.35000700000000001</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3438,10 +3449,10 @@
       <c r="K64">
         <v>19</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="5">
         <v>0.513957</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="5">
         <v>0.47368399999999999</v>
       </c>
     </row>
@@ -3479,10 +3490,10 @@
       <c r="K65">
         <v>9</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="5">
         <v>0.43244700000000003</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -3520,10 +3531,10 @@
       <c r="K66">
         <v>5</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="5">
         <v>0.45358100000000001</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -3561,10 +3572,10 @@
       <c r="K67">
         <v>4</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="5">
         <v>0.38904300000000003</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -3602,10 +3613,10 @@
       <c r="K68">
         <v>6</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="5">
         <v>0.36468</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -3643,10 +3654,10 @@
       <c r="K69">
         <v>7</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="5">
         <v>0.445546</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -3684,10 +3695,10 @@
       <c r="K70">
         <v>2</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="5">
         <v>0.58452999999999999</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3725,10 +3736,10 @@
       <c r="K71">
         <v>8</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="5">
         <v>0.54566199999999998</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -3766,10 +3777,10 @@
       <c r="K72">
         <v>10</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="5">
         <v>0.69030400000000003</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3807,10 +3818,10 @@
       <c r="K73">
         <v>15</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="5">
         <v>0.48865399999999998</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -3848,10 +3859,10 @@
       <c r="K74">
         <v>8</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="5">
         <v>0.51605100000000004</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -3889,10 +3900,10 @@
       <c r="K75">
         <v>4</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="5">
         <v>0.485842</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -3930,10 +3941,10 @@
       <c r="K76">
         <v>9</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="5">
         <v>0.45682600000000001</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -3971,10 +3982,10 @@
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="5">
         <v>0.33578000000000002</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4012,10 +4023,10 @@
       <c r="K78">
         <v>3</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="5">
         <v>0.310367</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4053,10 +4064,10 @@
       <c r="K79">
         <v>3</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="5">
         <v>0.362427</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -4094,10 +4105,10 @@
       <c r="K80">
         <v>2</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="5">
         <v>0.40841499999999997</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4135,10 +4146,10 @@
       <c r="K81">
         <v>13</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="5">
         <v>0.51091600000000004</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -4176,10 +4187,10 @@
       <c r="K82">
         <v>3</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="5">
         <v>0.53473700000000002</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -4217,10 +4228,10 @@
       <c r="K83">
         <v>29</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="5">
         <v>0.54117000000000004</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="5">
         <v>0.65517199999999998</v>
       </c>
     </row>
@@ -4258,10 +4269,10 @@
       <c r="K84">
         <v>13</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="5">
         <v>0.47455799999999998</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="5">
         <v>0.461538</v>
       </c>
     </row>
@@ -4299,10 +4310,10 @@
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="5">
         <v>0.524057</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4340,10 +4351,10 @@
       <c r="K86">
         <v>18</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="5">
         <v>0.43828899999999998</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -4381,10 +4392,10 @@
       <c r="K87">
         <v>5</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="5">
         <v>0.45440999999999998</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -4422,10 +4433,10 @@
       <c r="K88">
         <v>5</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="5">
         <v>0.56133200000000005</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -4463,10 +4474,10 @@
       <c r="K89">
         <v>19</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="5">
         <v>0.45879599999999998</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="5">
         <v>0.368421</v>
       </c>
     </row>
@@ -4504,10 +4515,10 @@
       <c r="K90">
         <v>2</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="5">
         <v>0.69815700000000003</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4545,10 +4556,10 @@
       <c r="K91">
         <v>6</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="5">
         <v>0.42660199999999998</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -4586,10 +4597,10 @@
       <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="5">
         <v>0.46032099999999998</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4627,10 +4638,10 @@
       <c r="K93">
         <v>9</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="5">
         <v>0.48219299999999998</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -4668,10 +4679,10 @@
       <c r="K94">
         <v>32</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="5">
         <v>0.47033199999999997</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="5">
         <v>0.53125</v>
       </c>
     </row>
@@ -4709,10 +4720,10 @@
       <c r="K95">
         <v>3</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="5">
         <v>0.40744599999999997</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -4750,6 +4761,12 @@
       <c r="K96">
         <v>1</v>
       </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -4785,10 +4802,10 @@
       <c r="K97">
         <v>11</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="5">
         <v>0.40426000000000001</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -4826,10 +4843,10 @@
       <c r="K98">
         <v>9</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="5">
         <v>0.53810500000000006</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -4867,10 +4884,10 @@
       <c r="K99">
         <v>3</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="5">
         <v>0.59065000000000001</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -4908,10 +4925,10 @@
       <c r="K100">
         <v>8</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="5">
         <v>0.47491699999999998</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -4949,10 +4966,10 @@
       <c r="K101">
         <v>1</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="5">
         <v>0.37437399999999998</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4990,10 +5007,10 @@
       <c r="K102">
         <v>7</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="5">
         <v>0.43223</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -5031,10 +5048,10 @@
       <c r="K103">
         <v>1</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="5">
         <v>0.23930199999999999</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5072,10 +5089,10 @@
       <c r="K104">
         <v>8</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="5">
         <v>0.40327800000000003</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -5113,10 +5130,10 @@
       <c r="K105">
         <v>4</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="5">
         <v>0.583036</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -5154,10 +5171,10 @@
       <c r="K106">
         <v>53</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="5">
         <v>0.55263099999999998</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="5">
         <v>0.62264200000000003</v>
       </c>
     </row>
@@ -5195,10 +5212,10 @@
       <c r="K107">
         <v>7</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="5">
         <v>0.50086799999999998</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -5236,10 +5253,10 @@
       <c r="K108">
         <v>5</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="5">
         <v>0.55503100000000005</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -5277,10 +5294,10 @@
       <c r="K109">
         <v>1</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="5">
         <v>0.300591</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5318,10 +5335,10 @@
       <c r="K110">
         <v>25</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="5">
         <v>0.426734</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -5359,10 +5376,10 @@
       <c r="K111">
         <v>13</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="5">
         <v>0.43775599999999998</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="5">
         <v>0.461538</v>
       </c>
     </row>
@@ -5400,10 +5417,10 @@
       <c r="K112">
         <v>2</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="5">
         <v>0.63823200000000002</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5441,10 +5458,10 @@
       <c r="K113">
         <v>2</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="5">
         <v>0.29883300000000002</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5482,10 +5499,10 @@
       <c r="K114">
         <v>19</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="5">
         <v>0.53124099999999996</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="5">
         <v>0.52631600000000001</v>
       </c>
     </row>
@@ -5523,10 +5540,10 @@
       <c r="K115">
         <v>9</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="5">
         <v>0.41964499999999999</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -5564,10 +5581,10 @@
       <c r="K116">
         <v>5</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="5">
         <v>0.43158400000000002</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -5605,10 +5622,10 @@
       <c r="K117">
         <v>4</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="5">
         <v>0.403561</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -5646,10 +5663,10 @@
       <c r="K118">
         <v>6</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="5">
         <v>0.39779500000000001</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -5687,10 +5704,10 @@
       <c r="K119">
         <v>7</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="5">
         <v>0.36850899999999998</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -5728,10 +5745,10 @@
       <c r="K120">
         <v>2</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="5">
         <v>0.59633100000000006</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5769,10 +5786,10 @@
       <c r="K121">
         <v>8</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="5">
         <v>0.59391799999999995</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -5810,10 +5827,10 @@
       <c r="K122">
         <v>10</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="5">
         <v>0.699403</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5851,10 +5868,10 @@
       <c r="K123">
         <v>15</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="5">
         <v>0.49490600000000001</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -5892,10 +5909,10 @@
       <c r="K124">
         <v>8</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="5">
         <v>0.53102199999999999</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -5933,10 +5950,10 @@
       <c r="K125">
         <v>4</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="5">
         <v>0.44556299999999999</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -5974,10 +5991,10 @@
       <c r="K126">
         <v>9</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="5">
         <v>0.454795</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -6015,10 +6032,10 @@
       <c r="K127">
         <v>1</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="5">
         <v>0.33729900000000002</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6056,10 +6073,10 @@
       <c r="K128">
         <v>3</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="5">
         <v>0.30932300000000001</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6097,10 +6114,10 @@
       <c r="K129">
         <v>3</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="5">
         <v>0.44248900000000002</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -6138,10 +6155,10 @@
       <c r="K130">
         <v>2</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="5">
         <v>0.38075799999999999</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6179,10 +6196,10 @@
       <c r="K131">
         <v>13</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="5">
         <v>0.523204</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="5">
         <v>0.461538</v>
       </c>
     </row>
@@ -6220,10 +6237,10 @@
       <c r="K132">
         <v>3</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="5">
         <v>0.51824099999999995</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -6261,10 +6278,10 @@
       <c r="K133">
         <v>29</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="5">
         <v>0.60881200000000002</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="5">
         <v>0.68965500000000002</v>
       </c>
     </row>
@@ -6302,10 +6319,10 @@
       <c r="K134">
         <v>13</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="5">
         <v>0.48926599999999998</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="5">
         <v>0.461538</v>
       </c>
     </row>
@@ -6343,10 +6360,10 @@
       <c r="K135">
         <v>1</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="5">
         <v>0.59562999999999999</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6384,10 +6401,10 @@
       <c r="K136">
         <v>18</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="5">
         <v>0.469497</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -6425,10 +6442,10 @@
       <c r="K137">
         <v>5</v>
       </c>
-      <c r="L137">
+      <c r="L137" s="5">
         <v>0.39297300000000002</v>
       </c>
-      <c r="M137">
+      <c r="M137" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -6466,10 +6483,10 @@
       <c r="K138">
         <v>5</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="5">
         <v>0.55549199999999999</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -6507,10 +6524,10 @@
       <c r="K139">
         <v>19</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="5">
         <v>0.49330200000000002</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="5">
         <v>0.368421</v>
       </c>
     </row>
@@ -6548,10 +6565,10 @@
       <c r="K140">
         <v>2</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="5">
         <v>0.71204199999999995</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6589,10 +6606,10 @@
       <c r="K141">
         <v>6</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="5">
         <v>0.41517300000000001</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -6630,10 +6647,10 @@
       <c r="K142">
         <v>1</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="5">
         <v>0.53751899999999997</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6671,10 +6688,10 @@
       <c r="K143">
         <v>9</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="5">
         <v>0.493618</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -6712,10 +6729,10 @@
       <c r="K144">
         <v>32</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="5">
         <v>0.427344</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="5">
         <v>0.34375</v>
       </c>
     </row>
@@ -6753,10 +6770,10 @@
       <c r="K145">
         <v>3</v>
       </c>
-      <c r="L145">
+      <c r="L145" s="5">
         <v>0.409995</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -6794,6 +6811,12 @@
       <c r="K146">
         <v>1</v>
       </c>
+      <c r="L146" s="5">
+        <v>0.22598099999999999</v>
+      </c>
+      <c r="M146" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
@@ -6829,10 +6852,10 @@
       <c r="K147">
         <v>11</v>
       </c>
-      <c r="L147">
+      <c r="L147" s="5">
         <v>0.41833100000000001</v>
       </c>
-      <c r="M147">
+      <c r="M147" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -6870,10 +6893,10 @@
       <c r="K148">
         <v>9</v>
       </c>
-      <c r="L148">
+      <c r="L148" s="5">
         <v>0.59489899999999996</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -6911,10 +6934,10 @@
       <c r="K149">
         <v>3</v>
       </c>
-      <c r="L149">
+      <c r="L149" s="5">
         <v>0.57819299999999996</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -6952,10 +6975,10 @@
       <c r="K150">
         <v>8</v>
       </c>
-      <c r="L150">
+      <c r="L150" s="5">
         <v>0.48111199999999998</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -6993,10 +7016,10 @@
       <c r="K151">
         <v>1</v>
       </c>
-      <c r="L151">
+      <c r="L151" s="5">
         <v>0.430809</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7034,10 +7057,10 @@
       <c r="K152">
         <v>7</v>
       </c>
-      <c r="L152">
+      <c r="L152" s="5">
         <v>0.43398900000000001</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -7075,10 +7098,10 @@
       <c r="K153">
         <v>1</v>
       </c>
-      <c r="L153">
+      <c r="L153" s="5">
         <v>0.41425400000000001</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7116,10 +7139,10 @@
       <c r="K154">
         <v>8</v>
       </c>
-      <c r="L154">
+      <c r="L154" s="5">
         <v>0.47309699999999999</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -7157,10 +7180,10 @@
       <c r="K155">
         <v>4</v>
       </c>
-      <c r="L155">
+      <c r="L155" s="5">
         <v>0.59837799999999997</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -7198,10 +7221,10 @@
       <c r="K156">
         <v>53</v>
       </c>
-      <c r="L156">
+      <c r="L156" s="5">
         <v>0.57687100000000002</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="5">
         <v>0.641509</v>
       </c>
     </row>
@@ -7239,10 +7262,10 @@
       <c r="K157">
         <v>7</v>
       </c>
-      <c r="L157">
+      <c r="L157" s="5">
         <v>0.55504200000000004</v>
       </c>
-      <c r="M157">
+      <c r="M157" s="5">
         <v>0.57142899999999996</v>
       </c>
     </row>
@@ -7280,10 +7303,10 @@
       <c r="K158">
         <v>5</v>
       </c>
-      <c r="L158">
+      <c r="L158" s="5">
         <v>0.60704199999999997</v>
       </c>
-      <c r="M158">
+      <c r="M158" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -7321,10 +7344,10 @@
       <c r="K159">
         <v>1</v>
       </c>
-      <c r="L159">
+      <c r="L159" s="5">
         <v>0.404059</v>
       </c>
-      <c r="M159">
+      <c r="M159" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7362,10 +7385,10 @@
       <c r="K160">
         <v>25</v>
       </c>
-      <c r="L160">
+      <c r="L160" s="5">
         <v>0.484763</v>
       </c>
-      <c r="M160">
+      <c r="M160" s="5">
         <v>0.36</v>
       </c>
     </row>
@@ -7403,10 +7426,10 @@
       <c r="K161">
         <v>13</v>
       </c>
-      <c r="L161">
+      <c r="L161" s="5">
         <v>0.43914300000000001</v>
       </c>
-      <c r="M161">
+      <c r="M161" s="5">
         <v>0.461538</v>
       </c>
     </row>
@@ -7444,10 +7467,10 @@
       <c r="K162">
         <v>2</v>
       </c>
-      <c r="L162">
+      <c r="L162" s="5">
         <v>0.65043300000000004</v>
       </c>
-      <c r="M162">
+      <c r="M162" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7485,10 +7508,10 @@
       <c r="K163">
         <v>2</v>
       </c>
-      <c r="L163">
+      <c r="L163" s="5">
         <v>0.416883</v>
       </c>
-      <c r="M163">
+      <c r="M163" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7526,10 +7549,10 @@
       <c r="K164">
         <v>19</v>
       </c>
-      <c r="L164">
+      <c r="L164" s="5">
         <v>0.56814200000000004</v>
       </c>
-      <c r="M164">
+      <c r="M164" s="5">
         <v>0.57894699999999999</v>
       </c>
     </row>
@@ -7567,10 +7590,10 @@
       <c r="K165">
         <v>9</v>
       </c>
-      <c r="L165">
+      <c r="L165" s="5">
         <v>0.49412499999999998</v>
       </c>
-      <c r="M165">
+      <c r="M165" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -7608,10 +7631,10 @@
       <c r="K166">
         <v>5</v>
       </c>
-      <c r="L166">
+      <c r="L166" s="5">
         <v>0.48549700000000001</v>
       </c>
-      <c r="M166">
+      <c r="M166" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -7649,10 +7672,10 @@
       <c r="K167">
         <v>4</v>
       </c>
-      <c r="L167">
+      <c r="L167" s="5">
         <v>0.44563599999999998</v>
       </c>
-      <c r="M167">
+      <c r="M167" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -7690,10 +7713,10 @@
       <c r="K168">
         <v>6</v>
       </c>
-      <c r="L168">
+      <c r="L168" s="5">
         <v>0.46952899999999997</v>
       </c>
-      <c r="M168">
+      <c r="M168" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -7731,10 +7754,10 @@
       <c r="K169">
         <v>7</v>
       </c>
-      <c r="L169">
+      <c r="L169" s="5">
         <v>0.37636199999999997</v>
       </c>
-      <c r="M169">
+      <c r="M169" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -7772,10 +7795,10 @@
       <c r="K170">
         <v>2</v>
       </c>
-      <c r="L170">
+      <c r="L170" s="5">
         <v>0.68248799999999998</v>
       </c>
-      <c r="M170">
+      <c r="M170" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7813,10 +7836,10 @@
       <c r="K171">
         <v>8</v>
       </c>
-      <c r="L171">
+      <c r="L171" s="5">
         <v>0.61544299999999996</v>
       </c>
-      <c r="M171">
+      <c r="M171" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -7854,10 +7877,10 @@
       <c r="K172">
         <v>10</v>
       </c>
-      <c r="L172">
+      <c r="L172" s="5">
         <v>0.70553900000000003</v>
       </c>
-      <c r="M172">
+      <c r="M172" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7895,10 +7918,10 @@
       <c r="K173">
         <v>15</v>
       </c>
-      <c r="L173">
+      <c r="L173" s="5">
         <v>0.52613699999999997</v>
       </c>
-      <c r="M173">
+      <c r="M173" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -7936,10 +7959,10 @@
       <c r="K174">
         <v>8</v>
       </c>
-      <c r="L174">
+      <c r="L174" s="5">
         <v>0.55487600000000004</v>
       </c>
-      <c r="M174">
+      <c r="M174" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -7977,10 +8000,10 @@
       <c r="K175">
         <v>4</v>
       </c>
-      <c r="L175">
+      <c r="L175" s="5">
         <v>0.50790299999999999</v>
       </c>
-      <c r="M175">
+      <c r="M175" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -8018,10 +8041,10 @@
       <c r="K176">
         <v>9</v>
       </c>
-      <c r="L176">
+      <c r="L176" s="5">
         <v>0.48601899999999998</v>
       </c>
-      <c r="M176">
+      <c r="M176" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -8059,10 +8082,10 @@
       <c r="K177">
         <v>1</v>
       </c>
-      <c r="L177">
+      <c r="L177" s="5">
         <v>0.39924599999999999</v>
       </c>
-      <c r="M177">
+      <c r="M177" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8100,10 +8123,10 @@
       <c r="K178">
         <v>3</v>
       </c>
-      <c r="L178">
+      <c r="L178" s="5">
         <v>0.43938199999999999</v>
       </c>
-      <c r="M178">
+      <c r="M178" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8141,10 +8164,10 @@
       <c r="K179">
         <v>3</v>
       </c>
-      <c r="L179">
+      <c r="L179" s="5">
         <v>0.52513900000000002</v>
       </c>
-      <c r="M179">
+      <c r="M179" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8182,10 +8205,10 @@
       <c r="K180">
         <v>2</v>
       </c>
-      <c r="L180">
+      <c r="L180" s="5">
         <v>0.52483299999999999</v>
       </c>
-      <c r="M180">
+      <c r="M180" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8223,10 +8246,10 @@
       <c r="K181">
         <v>13</v>
       </c>
-      <c r="L181">
+      <c r="L181" s="5">
         <v>0.54960399999999998</v>
       </c>
-      <c r="M181">
+      <c r="M181" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -8264,10 +8287,10 @@
       <c r="K182">
         <v>3</v>
       </c>
-      <c r="L182">
+      <c r="L182" s="5">
         <v>0.55830999999999997</v>
       </c>
-      <c r="M182">
+      <c r="M182" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -8305,10 +8328,10 @@
       <c r="K183">
         <v>29</v>
       </c>
-      <c r="L183">
+      <c r="L183" s="5">
         <v>0.65065399999999995</v>
       </c>
-      <c r="M183">
+      <c r="M183" s="5">
         <v>0.793103</v>
       </c>
     </row>
@@ -8346,10 +8369,10 @@
       <c r="K184">
         <v>13</v>
       </c>
-      <c r="L184">
+      <c r="L184" s="5">
         <v>0.52296299999999996</v>
       </c>
-      <c r="M184">
+      <c r="M184" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -8387,10 +8410,10 @@
       <c r="K185">
         <v>1</v>
       </c>
-      <c r="L185">
+      <c r="L185" s="5">
         <v>0.656802</v>
       </c>
-      <c r="M185">
+      <c r="M185" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8428,10 +8451,10 @@
       <c r="K186">
         <v>18</v>
       </c>
-      <c r="L186">
+      <c r="L186" s="5">
         <v>0.52673800000000004</v>
       </c>
-      <c r="M186">
+      <c r="M186" s="5">
         <v>0.38888899999999998</v>
       </c>
     </row>
@@ -8469,10 +8492,10 @@
       <c r="K187">
         <v>5</v>
       </c>
-      <c r="L187">
+      <c r="L187" s="5">
         <v>0.41854599999999997</v>
       </c>
-      <c r="M187">
+      <c r="M187" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -8510,10 +8533,10 @@
       <c r="K188">
         <v>5</v>
       </c>
-      <c r="L188">
+      <c r="L188" s="5">
         <v>0.57872599999999996</v>
       </c>
-      <c r="M188">
+      <c r="M188" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -8551,10 +8574,10 @@
       <c r="K189">
         <v>19</v>
       </c>
-      <c r="L189">
+      <c r="L189" s="5">
         <v>0.545852</v>
       </c>
-      <c r="M189">
+      <c r="M189" s="5">
         <v>0.57894699999999999</v>
       </c>
     </row>
@@ -8592,10 +8615,10 @@
       <c r="K190">
         <v>2</v>
       </c>
-      <c r="L190">
+      <c r="L190" s="5">
         <v>0.72208899999999998</v>
       </c>
-      <c r="M190">
+      <c r="M190" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8633,10 +8656,10 @@
       <c r="K191">
         <v>6</v>
       </c>
-      <c r="L191">
+      <c r="L191" s="5">
         <v>0.49768699999999999</v>
       </c>
-      <c r="M191">
+      <c r="M191" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -8674,10 +8697,10 @@
       <c r="K192">
         <v>1</v>
       </c>
-      <c r="L192">
+      <c r="L192" s="5">
         <v>0.701936</v>
       </c>
-      <c r="M192">
+      <c r="M192" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8715,10 +8738,10 @@
       <c r="K193">
         <v>9</v>
       </c>
-      <c r="L193">
+      <c r="L193" s="5">
         <v>0.51846400000000004</v>
       </c>
-      <c r="M193">
+      <c r="M193" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -8756,10 +8779,10 @@
       <c r="K194">
         <v>32</v>
       </c>
-      <c r="L194">
+      <c r="L194" s="5">
         <v>0.46498600000000001</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -8797,10 +8820,10 @@
       <c r="K195">
         <v>3</v>
       </c>
-      <c r="L195">
+      <c r="L195" s="5">
         <v>0.455515</v>
       </c>
-      <c r="M195">
+      <c r="M195" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -8838,10 +8861,10 @@
       <c r="K196">
         <v>1</v>
       </c>
-      <c r="L196">
+      <c r="L196" s="5">
         <v>0.54437000000000002</v>
       </c>
-      <c r="M196">
+      <c r="M196" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8879,10 +8902,10 @@
       <c r="K197">
         <v>11</v>
       </c>
-      <c r="L197">
+      <c r="L197" s="5">
         <v>0.45966099999999999</v>
       </c>
-      <c r="M197">
+      <c r="M197" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -8920,10 +8943,10 @@
       <c r="K198">
         <v>9</v>
       </c>
-      <c r="L198">
+      <c r="L198" s="5">
         <v>0.60922299999999996</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -8961,10 +8984,10 @@
       <c r="K199">
         <v>3</v>
       </c>
-      <c r="L199">
+      <c r="L199" s="5">
         <v>0.58019200000000004</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -9002,10 +9025,10 @@
       <c r="K200">
         <v>8</v>
       </c>
-      <c r="L200">
+      <c r="L200" s="5">
         <v>0.51159500000000002</v>
       </c>
-      <c r="M200">
+      <c r="M200" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -9043,10 +9066,10 @@
       <c r="K201">
         <v>1</v>
       </c>
-      <c r="L201">
+      <c r="L201" s="5">
         <v>0.49727500000000002</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9084,10 +9107,10 @@
       <c r="K202">
         <v>7</v>
       </c>
-      <c r="L202">
+      <c r="L202" s="5">
         <v>0.43253799999999998</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -9125,10 +9148,10 @@
       <c r="K203">
         <v>1</v>
       </c>
-      <c r="L203">
+      <c r="L203" s="5">
         <v>0.47283700000000001</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9166,10 +9189,10 @@
       <c r="K204">
         <v>8</v>
       </c>
-      <c r="L204">
+      <c r="L204" s="5">
         <v>0.50806600000000002</v>
       </c>
-      <c r="M204">
+      <c r="M204" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -9207,10 +9230,10 @@
       <c r="K205">
         <v>4</v>
       </c>
-      <c r="L205">
+      <c r="L205" s="5">
         <v>0.59513300000000002</v>
       </c>
-      <c r="M205">
+      <c r="M205" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -9248,10 +9271,10 @@
       <c r="K206">
         <v>53</v>
       </c>
-      <c r="L206">
+      <c r="L206" s="5">
         <v>0.60691799999999996</v>
       </c>
-      <c r="M206">
+      <c r="M206" s="5">
         <v>0.641509</v>
       </c>
     </row>
@@ -9289,10 +9312,10 @@
       <c r="K207">
         <v>7</v>
       </c>
-      <c r="L207">
+      <c r="L207" s="5">
         <v>0.55973799999999996</v>
       </c>
-      <c r="M207">
+      <c r="M207" s="5">
         <v>0.71428599999999998</v>
       </c>
     </row>
@@ -9330,10 +9353,10 @@
       <c r="K208">
         <v>5</v>
       </c>
-      <c r="L208">
+      <c r="L208" s="5">
         <v>0.64289499999999999</v>
       </c>
-      <c r="M208">
+      <c r="M208" s="5">
         <v>1</v>
       </c>
     </row>
@@ -9371,10 +9394,10 @@
       <c r="K209">
         <v>1</v>
       </c>
-      <c r="L209">
+      <c r="L209" s="5">
         <v>0.383465</v>
       </c>
-      <c r="M209">
+      <c r="M209" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9412,10 +9435,10 @@
       <c r="K210">
         <v>25</v>
       </c>
-      <c r="L210">
+      <c r="L210" s="5">
         <v>0.48939700000000003</v>
       </c>
-      <c r="M210">
+      <c r="M210" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -9453,10 +9476,10 @@
       <c r="K211">
         <v>13</v>
       </c>
-      <c r="L211">
+      <c r="L211" s="5">
         <v>0.48261999999999999</v>
       </c>
-      <c r="M211">
+      <c r="M211" s="5">
         <v>0.461538</v>
       </c>
     </row>
@@ -9494,10 +9517,10 @@
       <c r="K212">
         <v>2</v>
       </c>
-      <c r="L212">
+      <c r="L212" s="5">
         <v>0.79493000000000003</v>
       </c>
-      <c r="M212">
+      <c r="M212" s="5">
         <v>1</v>
       </c>
     </row>
@@ -9535,10 +9558,10 @@
       <c r="K213">
         <v>2</v>
       </c>
-      <c r="L213">
+      <c r="L213" s="5">
         <v>0.40765800000000002</v>
       </c>
-      <c r="M213">
+      <c r="M213" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -9576,10 +9599,10 @@
       <c r="K214">
         <v>19</v>
       </c>
-      <c r="L214">
+      <c r="L214" s="5">
         <v>0.60706400000000005</v>
       </c>
-      <c r="M214">
+      <c r="M214" s="5">
         <v>0.631579</v>
       </c>
     </row>
@@ -9617,10 +9640,10 @@
       <c r="K215">
         <v>9</v>
       </c>
-      <c r="L215">
+      <c r="L215" s="5">
         <v>0.52821399999999996</v>
       </c>
-      <c r="M215">
+      <c r="M215" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -9658,10 +9681,10 @@
       <c r="K216">
         <v>5</v>
       </c>
-      <c r="L216">
+      <c r="L216" s="5">
         <v>0.52099799999999996</v>
       </c>
-      <c r="M216">
+      <c r="M216" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -9699,10 +9722,10 @@
       <c r="K217">
         <v>4</v>
       </c>
-      <c r="L217">
+      <c r="L217" s="5">
         <v>0.40518700000000002</v>
       </c>
-      <c r="M217">
+      <c r="M217" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -9740,10 +9763,10 @@
       <c r="K218">
         <v>6</v>
       </c>
-      <c r="L218">
+      <c r="L218" s="5">
         <v>0.46207900000000002</v>
       </c>
-      <c r="M218">
+      <c r="M218" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -9781,10 +9804,10 @@
       <c r="K219">
         <v>7</v>
       </c>
-      <c r="L219">
+      <c r="L219" s="5">
         <v>0.43061700000000003</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -9822,10 +9845,10 @@
       <c r="K220">
         <v>2</v>
       </c>
-      <c r="L220">
+      <c r="L220" s="5">
         <v>0.60822799999999999</v>
       </c>
-      <c r="M220">
+      <c r="M220" s="5">
         <v>1</v>
       </c>
     </row>
@@ -9863,10 +9886,10 @@
       <c r="K221">
         <v>8</v>
       </c>
-      <c r="L221">
+      <c r="L221" s="5">
         <v>0.68747400000000003</v>
       </c>
-      <c r="M221">
+      <c r="M221" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -9904,10 +9927,10 @@
       <c r="K222">
         <v>10</v>
       </c>
-      <c r="L222">
+      <c r="L222" s="5">
         <v>0.71066799999999997</v>
       </c>
-      <c r="M222">
+      <c r="M222" s="5">
         <v>1</v>
       </c>
     </row>
@@ -9945,10 +9968,10 @@
       <c r="K223">
         <v>15</v>
       </c>
-      <c r="L223">
+      <c r="L223" s="5">
         <v>0.53223799999999999</v>
       </c>
-      <c r="M223">
+      <c r="M223" s="5">
         <v>0.53333299999999995</v>
       </c>
     </row>
@@ -9986,10 +10009,10 @@
       <c r="K224">
         <v>8</v>
       </c>
-      <c r="L224">
+      <c r="L224" s="5">
         <v>0.60133599999999998</v>
       </c>
-      <c r="M224">
+      <c r="M224" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -10027,10 +10050,10 @@
       <c r="K225">
         <v>4</v>
       </c>
-      <c r="L225">
+      <c r="L225" s="5">
         <v>0.58119699999999996</v>
       </c>
-      <c r="M225">
+      <c r="M225" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -10068,10 +10091,10 @@
       <c r="K226">
         <v>9</v>
       </c>
-      <c r="L226">
+      <c r="L226" s="5">
         <v>0.49930000000000002</v>
       </c>
-      <c r="M226">
+      <c r="M226" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -10109,10 +10132,10 @@
       <c r="K227">
         <v>1</v>
       </c>
-      <c r="L227">
+      <c r="L227" s="5">
         <v>0.33576699999999998</v>
       </c>
-      <c r="M227">
+      <c r="M227" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10150,10 +10173,10 @@
       <c r="K228">
         <v>3</v>
       </c>
-      <c r="L228">
+      <c r="L228" s="5">
         <v>0.34161200000000003</v>
       </c>
-      <c r="M228">
+      <c r="M228" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10191,10 +10214,10 @@
       <c r="K229">
         <v>3</v>
       </c>
-      <c r="L229">
+      <c r="L229" s="5">
         <v>0.54386699999999999</v>
       </c>
-      <c r="M229">
+      <c r="M229" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -10232,10 +10255,10 @@
       <c r="K230">
         <v>2</v>
       </c>
-      <c r="L230">
+      <c r="L230" s="5">
         <v>0.55324099999999998</v>
       </c>
-      <c r="M230">
+      <c r="M230" s="5">
         <v>1</v>
       </c>
     </row>
@@ -10273,10 +10296,10 @@
       <c r="K231">
         <v>13</v>
       </c>
-      <c r="L231">
+      <c r="L231" s="5">
         <v>0.555948</v>
       </c>
-      <c r="M231">
+      <c r="M231" s="5">
         <v>0.61538499999999996</v>
       </c>
     </row>
@@ -10314,10 +10337,10 @@
       <c r="K232">
         <v>3</v>
       </c>
-      <c r="L232">
+      <c r="L232" s="5">
         <v>0.58741299999999996</v>
       </c>
-      <c r="M232">
+      <c r="M232" s="5">
         <v>1</v>
       </c>
     </row>
@@ -10355,10 +10378,10 @@
       <c r="K233">
         <v>29</v>
       </c>
-      <c r="L233">
+      <c r="L233" s="5">
         <v>0.676562</v>
       </c>
-      <c r="M233">
+      <c r="M233" s="5">
         <v>0.89655200000000002</v>
       </c>
     </row>
@@ -10396,10 +10419,10 @@
       <c r="K234">
         <v>13</v>
       </c>
-      <c r="L234">
+      <c r="L234" s="5">
         <v>0.54677100000000001</v>
       </c>
-      <c r="M234">
+      <c r="M234" s="5">
         <v>0.61538499999999996</v>
       </c>
     </row>
@@ -10437,10 +10460,10 @@
       <c r="K235">
         <v>1</v>
       </c>
-      <c r="L235">
+      <c r="L235" s="5">
         <v>0.61974099999999999</v>
       </c>
-      <c r="M235">
+      <c r="M235" s="5">
         <v>1</v>
       </c>
     </row>
@@ -10478,10 +10501,10 @@
       <c r="K236">
         <v>18</v>
       </c>
-      <c r="L236">
+      <c r="L236" s="5">
         <v>0.52485099999999996</v>
       </c>
-      <c r="M236">
+      <c r="M236" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -10519,10 +10542,10 @@
       <c r="K237">
         <v>5</v>
       </c>
-      <c r="L237">
+      <c r="L237" s="5">
         <v>0.385573</v>
       </c>
-      <c r="M237">
+      <c r="M237" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -10560,10 +10583,10 @@
       <c r="K238">
         <v>5</v>
       </c>
-      <c r="L238">
+      <c r="L238" s="5">
         <v>0.61245799999999995</v>
       </c>
-      <c r="M238">
+      <c r="M238" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -10601,10 +10624,10 @@
       <c r="K239">
         <v>19</v>
       </c>
-      <c r="L239">
+      <c r="L239" s="5">
         <v>0.55010099999999995</v>
       </c>
-      <c r="M239">
+      <c r="M239" s="5">
         <v>0.631579</v>
       </c>
     </row>
@@ -10642,10 +10665,10 @@
       <c r="K240">
         <v>2</v>
       </c>
-      <c r="L240">
+      <c r="L240" s="5">
         <v>0.71884300000000001</v>
       </c>
-      <c r="M240">
+      <c r="M240" s="5">
         <v>1</v>
       </c>
     </row>
@@ -10683,10 +10706,10 @@
       <c r="K241">
         <v>6</v>
       </c>
-      <c r="L241">
+      <c r="L241" s="5">
         <v>0.49457499999999999</v>
       </c>
-      <c r="M241">
+      <c r="M241" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -10724,10 +10747,10 @@
       <c r="K242">
         <v>1</v>
       </c>
-      <c r="L242">
+      <c r="L242" s="5">
         <v>0.67555699999999996</v>
       </c>
-      <c r="M242">
+      <c r="M242" s="5">
         <v>1</v>
       </c>
     </row>
@@ -10765,10 +10788,10 @@
       <c r="K243">
         <v>9</v>
       </c>
-      <c r="L243">
+      <c r="L243" s="5">
         <v>0.49545600000000001</v>
       </c>
-      <c r="M243">
+      <c r="M243" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -10806,10 +10829,10 @@
       <c r="K244">
         <v>32</v>
       </c>
-      <c r="L244">
+      <c r="L244" s="5">
         <v>0.44853300000000002</v>
       </c>
-      <c r="M244">
+      <c r="M244" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -10847,10 +10870,10 @@
       <c r="K245">
         <v>3</v>
       </c>
-      <c r="L245">
+      <c r="L245" s="5">
         <v>0.43864399999999998</v>
       </c>
-      <c r="M245">
+      <c r="M245" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -10888,10 +10911,10 @@
       <c r="K246">
         <v>1</v>
       </c>
-      <c r="L246">
+      <c r="L246" s="5">
         <v>0.69999900000000004</v>
       </c>
-      <c r="M246">
+      <c r="M246" s="5">
         <v>1</v>
       </c>
     </row>
@@ -10929,10 +10952,10 @@
       <c r="K247">
         <v>11</v>
       </c>
-      <c r="L247">
+      <c r="L247" s="5">
         <v>0.51181200000000004</v>
       </c>
-      <c r="M247">
+      <c r="M247" s="5">
         <v>0.54545500000000002</v>
       </c>
     </row>
@@ -10970,10 +10993,10 @@
       <c r="K248">
         <v>9</v>
       </c>
-      <c r="L248">
+      <c r="L248" s="5">
         <v>0.59198399999999995</v>
       </c>
-      <c r="M248">
+      <c r="M248" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -11011,10 +11034,10 @@
       <c r="K249">
         <v>3</v>
       </c>
-      <c r="L249">
+      <c r="L249" s="5">
         <v>0.59524999999999995</v>
       </c>
-      <c r="M249">
+      <c r="M249" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -11052,10 +11075,10 @@
       <c r="K250">
         <v>8</v>
       </c>
-      <c r="L250">
+      <c r="L250" s="5">
         <v>0.52551199999999998</v>
       </c>
-      <c r="M250">
+      <c r="M250" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -11093,10 +11116,10 @@
       <c r="K251">
         <v>1</v>
       </c>
-      <c r="L251">
+      <c r="L251" s="5">
         <v>0.44855899999999999</v>
       </c>
-      <c r="M251">
+      <c r="M251" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11134,10 +11157,10 @@
       <c r="K252">
         <v>7</v>
       </c>
-      <c r="L252">
+      <c r="L252" s="5">
         <v>0.40783999999999998</v>
       </c>
-      <c r="M252">
+      <c r="M252" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -11175,10 +11198,10 @@
       <c r="K253">
         <v>1</v>
       </c>
-      <c r="L253">
+      <c r="L253" s="5">
         <v>0.306755</v>
       </c>
-      <c r="M253">
+      <c r="M253" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11216,10 +11239,10 @@
       <c r="K254">
         <v>8</v>
       </c>
-      <c r="L254">
+      <c r="L254" s="5">
         <v>0.44149100000000002</v>
       </c>
-      <c r="M254">
+      <c r="M254" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -11257,10 +11280,10 @@
       <c r="K255">
         <v>4</v>
       </c>
-      <c r="L255">
+      <c r="L255" s="5">
         <v>0.42205500000000001</v>
       </c>
-      <c r="M255">
+      <c r="M255" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -11298,10 +11321,10 @@
       <c r="K256">
         <v>53</v>
       </c>
-      <c r="L256">
+      <c r="L256" s="5">
         <v>0.55729499999999998</v>
       </c>
-      <c r="M256">
+      <c r="M256" s="5">
         <v>0.641509</v>
       </c>
     </row>
@@ -11339,10 +11362,10 @@
       <c r="K257">
         <v>7</v>
       </c>
-      <c r="L257">
+      <c r="L257" s="5">
         <v>0.475331</v>
       </c>
-      <c r="M257">
+      <c r="M257" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -11380,10 +11403,10 @@
       <c r="K258">
         <v>5</v>
       </c>
-      <c r="L258">
+      <c r="L258" s="5">
         <v>0.58096199999999998</v>
       </c>
-      <c r="M258">
+      <c r="M258" s="5">
         <v>1</v>
       </c>
     </row>
@@ -11421,10 +11444,10 @@
       <c r="K259">
         <v>1</v>
       </c>
-      <c r="L259">
+      <c r="L259" s="5">
         <v>0.58043999999999996</v>
       </c>
-      <c r="M259">
+      <c r="M259" s="5">
         <v>1</v>
       </c>
     </row>
@@ -11462,10 +11485,10 @@
       <c r="K260">
         <v>25</v>
       </c>
-      <c r="L260">
+      <c r="L260" s="5">
         <v>0.404719</v>
       </c>
-      <c r="M260">
+      <c r="M260" s="5">
         <v>0.24</v>
       </c>
     </row>
@@ -11503,10 +11526,10 @@
       <c r="K261">
         <v>13</v>
       </c>
-      <c r="L261">
+      <c r="L261" s="5">
         <v>0.43356600000000001</v>
       </c>
-      <c r="M261">
+      <c r="M261" s="5">
         <v>0.38461499999999998</v>
       </c>
     </row>
@@ -11544,10 +11567,10 @@
       <c r="K262">
         <v>2</v>
       </c>
-      <c r="L262">
+      <c r="L262" s="5">
         <v>0.63683199999999995</v>
       </c>
-      <c r="M262">
+      <c r="M262" s="5">
         <v>1</v>
       </c>
     </row>
@@ -11585,10 +11608,10 @@
       <c r="K263">
         <v>2</v>
       </c>
-      <c r="L263">
+      <c r="L263" s="5">
         <v>0.36394199999999999</v>
       </c>
-      <c r="M263">
+      <c r="M263" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11626,10 +11649,10 @@
       <c r="K264">
         <v>19</v>
       </c>
-      <c r="L264">
+      <c r="L264" s="5">
         <v>0.52173000000000003</v>
       </c>
-      <c r="M264">
+      <c r="M264" s="5">
         <v>0.42105300000000001</v>
       </c>
     </row>
@@ -11667,10 +11690,10 @@
       <c r="K265">
         <v>9</v>
       </c>
-      <c r="L265">
+      <c r="L265" s="5">
         <v>0.41126299999999999</v>
       </c>
-      <c r="M265">
+      <c r="M265" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -11708,10 +11731,10 @@
       <c r="K266">
         <v>5</v>
       </c>
-      <c r="L266">
+      <c r="L266" s="5">
         <v>0.44544600000000001</v>
       </c>
-      <c r="M266">
+      <c r="M266" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -11749,10 +11772,10 @@
       <c r="K267">
         <v>4</v>
       </c>
-      <c r="L267">
+      <c r="L267" s="5">
         <v>0.34240100000000001</v>
       </c>
-      <c r="M267">
+      <c r="M267" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11790,10 +11813,10 @@
       <c r="K268">
         <v>6</v>
       </c>
-      <c r="L268">
+      <c r="L268" s="5">
         <v>0.37486000000000003</v>
       </c>
-      <c r="M268">
+      <c r="M268" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -11831,10 +11854,10 @@
       <c r="K269">
         <v>7</v>
       </c>
-      <c r="L269">
+      <c r="L269" s="5">
         <v>0.34261000000000003</v>
       </c>
-      <c r="M269">
+      <c r="M269" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -11872,10 +11895,10 @@
       <c r="K270">
         <v>2</v>
       </c>
-      <c r="L270">
+      <c r="L270" s="5">
         <v>0.56023599999999996</v>
       </c>
-      <c r="M270">
+      <c r="M270" s="5">
         <v>1</v>
       </c>
     </row>
@@ -11913,10 +11936,10 @@
       <c r="K271">
         <v>8</v>
       </c>
-      <c r="L271">
+      <c r="L271" s="5">
         <v>0.62084799999999996</v>
       </c>
-      <c r="M271">
+      <c r="M271" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -11954,10 +11977,10 @@
       <c r="K272">
         <v>10</v>
       </c>
-      <c r="L272">
+      <c r="L272" s="5">
         <v>0.60825899999999999</v>
       </c>
-      <c r="M272">
+      <c r="M272" s="5">
         <v>1</v>
       </c>
     </row>
@@ -11995,10 +12018,10 @@
       <c r="K273">
         <v>15</v>
       </c>
-      <c r="L273">
+      <c r="L273" s="5">
         <v>0.458455</v>
       </c>
-      <c r="M273">
+      <c r="M273" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -12036,10 +12059,10 @@
       <c r="K274">
         <v>8</v>
       </c>
-      <c r="L274">
+      <c r="L274" s="5">
         <v>0.50792899999999996</v>
       </c>
-      <c r="M274">
+      <c r="M274" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -12077,10 +12100,10 @@
       <c r="K275">
         <v>4</v>
       </c>
-      <c r="L275">
+      <c r="L275" s="5">
         <v>0.452934</v>
       </c>
-      <c r="M275">
+      <c r="M275" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -12118,10 +12141,10 @@
       <c r="K276">
         <v>9</v>
       </c>
-      <c r="L276">
+      <c r="L276" s="5">
         <v>0.41348499999999999</v>
       </c>
-      <c r="M276">
+      <c r="M276" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -12159,10 +12182,10 @@
       <c r="K277">
         <v>1</v>
       </c>
-      <c r="L277">
+      <c r="L277" s="5">
         <v>0.35905799999999999</v>
       </c>
-      <c r="M277">
+      <c r="M277" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12200,10 +12223,10 @@
       <c r="K278">
         <v>3</v>
       </c>
-      <c r="L278">
+      <c r="L278" s="5">
         <v>0.295427</v>
       </c>
-      <c r="M278">
+      <c r="M278" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12241,10 +12264,10 @@
       <c r="K279">
         <v>3</v>
       </c>
-      <c r="L279">
+      <c r="L279" s="5">
         <v>0.47072399999999998</v>
       </c>
-      <c r="M279">
+      <c r="M279" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -12282,10 +12305,10 @@
       <c r="K280">
         <v>2</v>
       </c>
-      <c r="L280">
+      <c r="L280" s="5">
         <v>0.46552900000000003</v>
       </c>
-      <c r="M280">
+      <c r="M280" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12323,10 +12346,10 @@
       <c r="K281">
         <v>13</v>
       </c>
-      <c r="L281">
+      <c r="L281" s="5">
         <v>0.49265199999999998</v>
       </c>
-      <c r="M281">
+      <c r="M281" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -12364,10 +12387,10 @@
       <c r="K282">
         <v>3</v>
       </c>
-      <c r="L282">
+      <c r="L282" s="5">
         <v>0.515822</v>
       </c>
-      <c r="M282">
+      <c r="M282" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -12405,10 +12428,10 @@
       <c r="K283">
         <v>29</v>
       </c>
-      <c r="L283">
+      <c r="L283" s="5">
         <v>0.613792</v>
       </c>
-      <c r="M283">
+      <c r="M283" s="5">
         <v>0.72413799999999995</v>
       </c>
     </row>
@@ -12446,10 +12469,10 @@
       <c r="K284">
         <v>13</v>
       </c>
-      <c r="L284">
+      <c r="L284" s="5">
         <v>0.45534400000000003</v>
       </c>
-      <c r="M284">
+      <c r="M284" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -12487,10 +12510,10 @@
       <c r="K285">
         <v>1</v>
       </c>
-      <c r="L285">
+      <c r="L285" s="5">
         <v>0.45079200000000003</v>
       </c>
-      <c r="M285">
+      <c r="M285" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12528,10 +12551,10 @@
       <c r="K286">
         <v>18</v>
       </c>
-      <c r="L286">
+      <c r="L286" s="5">
         <v>0.43969200000000003</v>
       </c>
-      <c r="M286">
+      <c r="M286" s="5">
         <v>0.27777800000000002</v>
       </c>
     </row>
@@ -12569,10 +12592,10 @@
       <c r="K287">
         <v>5</v>
       </c>
-      <c r="L287">
+      <c r="L287" s="5">
         <v>0.344634</v>
       </c>
-      <c r="M287">
+      <c r="M287" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -12610,10 +12633,10 @@
       <c r="K288">
         <v>5</v>
       </c>
-      <c r="L288">
+      <c r="L288" s="5">
         <v>0.52746099999999996</v>
       </c>
-      <c r="M288">
+      <c r="M288" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -12651,10 +12674,10 @@
       <c r="K289">
         <v>19</v>
       </c>
-      <c r="L289">
+      <c r="L289" s="5">
         <v>0.47284300000000001</v>
       </c>
-      <c r="M289">
+      <c r="M289" s="5">
         <v>0.368421</v>
       </c>
     </row>
@@ -12692,10 +12715,10 @@
       <c r="K290">
         <v>2</v>
       </c>
-      <c r="L290">
+      <c r="L290" s="5">
         <v>0.59396700000000002</v>
       </c>
-      <c r="M290">
+      <c r="M290" s="5">
         <v>1</v>
       </c>
     </row>
@@ -12733,10 +12756,10 @@
       <c r="K291">
         <v>6</v>
       </c>
-      <c r="L291">
+      <c r="L291" s="5">
         <v>0.41612500000000002</v>
       </c>
-      <c r="M291">
+      <c r="M291" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -12774,10 +12797,10 @@
       <c r="K292">
         <v>1</v>
       </c>
-      <c r="L292">
+      <c r="L292" s="5">
         <v>0.48815500000000001</v>
       </c>
-      <c r="M292">
+      <c r="M292" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12815,10 +12838,10 @@
       <c r="K293">
         <v>9</v>
       </c>
-      <c r="L293">
+      <c r="L293" s="5">
         <v>0.36183700000000002</v>
       </c>
-      <c r="M293">
+      <c r="M293" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -12856,10 +12879,10 @@
       <c r="K294">
         <v>32</v>
       </c>
-      <c r="L294">
+      <c r="L294" s="5">
         <v>0.366313</v>
       </c>
-      <c r="M294">
+      <c r="M294" s="5">
         <v>0.28125</v>
       </c>
     </row>
@@ -12897,10 +12920,10 @@
       <c r="K295">
         <v>3</v>
       </c>
-      <c r="L295">
+      <c r="L295" s="5">
         <v>0.35823100000000002</v>
       </c>
-      <c r="M295">
+      <c r="M295" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -12938,10 +12961,10 @@
       <c r="K296">
         <v>1</v>
       </c>
-      <c r="L296">
+      <c r="L296" s="5">
         <v>0.66840299999999997</v>
       </c>
-      <c r="M296">
+      <c r="M296" s="5">
         <v>1</v>
       </c>
     </row>
@@ -12979,10 +13002,10 @@
       <c r="K297">
         <v>11</v>
       </c>
-      <c r="L297">
+      <c r="L297" s="5">
         <v>0.44742100000000001</v>
       </c>
-      <c r="M297">
+      <c r="M297" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -13020,10 +13043,10 @@
       <c r="K298">
         <v>9</v>
       </c>
-      <c r="L298">
+      <c r="L298" s="5">
         <v>0.51217299999999999</v>
       </c>
-      <c r="M298">
+      <c r="M298" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -13061,10 +13084,10 @@
       <c r="K299">
         <v>3</v>
       </c>
-      <c r="L299">
+      <c r="L299" s="5">
         <v>0.44595499999999999</v>
       </c>
-      <c r="M299">
+      <c r="M299" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -13102,10 +13125,10 @@
       <c r="K300">
         <v>8</v>
       </c>
-      <c r="L300">
+      <c r="L300" s="5">
         <v>0.44605</v>
       </c>
-      <c r="M300">
+      <c r="M300" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -13143,10 +13166,10 @@
       <c r="K301">
         <v>1</v>
       </c>
-      <c r="L301">
+      <c r="L301" s="5">
         <v>0.25795099999999999</v>
       </c>
-      <c r="M301">
+      <c r="M301" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13184,10 +13207,10 @@
       <c r="K302">
         <v>7</v>
       </c>
-      <c r="L302">
+      <c r="L302" s="5">
         <v>0.38629200000000002</v>
       </c>
-      <c r="M302">
+      <c r="M302" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -13225,10 +13248,10 @@
       <c r="K303">
         <v>1</v>
       </c>
-      <c r="L303">
+      <c r="L303" s="5">
         <v>0.309172</v>
       </c>
-      <c r="M303">
+      <c r="M303" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13266,10 +13289,10 @@
       <c r="K304">
         <v>9</v>
       </c>
-      <c r="L304">
+      <c r="L304" s="5">
         <v>0.45809499999999997</v>
       </c>
-      <c r="M304">
+      <c r="M304" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -13307,10 +13330,10 @@
       <c r="K305">
         <v>4</v>
       </c>
-      <c r="L305">
+      <c r="L305" s="5">
         <v>0.37630200000000003</v>
       </c>
-      <c r="M305">
+      <c r="M305" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13348,10 +13371,10 @@
       <c r="K306">
         <v>53</v>
       </c>
-      <c r="L306">
+      <c r="L306" s="5">
         <v>0.58996599999999999</v>
       </c>
-      <c r="M306">
+      <c r="M306" s="5">
         <v>0.71698099999999998</v>
       </c>
     </row>
@@ -13389,10 +13412,10 @@
       <c r="K307">
         <v>7</v>
       </c>
-      <c r="L307">
+      <c r="L307" s="5">
         <v>0.49864399999999998</v>
       </c>
-      <c r="M307">
+      <c r="M307" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -13430,10 +13453,10 @@
       <c r="K308">
         <v>5</v>
       </c>
-      <c r="L308">
+      <c r="L308" s="5">
         <v>0.64320900000000003</v>
       </c>
-      <c r="M308">
+      <c r="M308" s="5">
         <v>1</v>
       </c>
     </row>
@@ -13471,10 +13494,10 @@
       <c r="K309">
         <v>1</v>
       </c>
-      <c r="L309">
+      <c r="L309" s="5">
         <v>0.65825500000000003</v>
       </c>
-      <c r="M309">
+      <c r="M309" s="5">
         <v>1</v>
       </c>
     </row>
@@ -13512,10 +13535,10 @@
       <c r="K310">
         <v>27</v>
       </c>
-      <c r="L310">
+      <c r="L310" s="5">
         <v>0.47045900000000002</v>
       </c>
-      <c r="M310">
+      <c r="M310" s="5">
         <v>0.37036999999999998</v>
       </c>
     </row>
@@ -13553,10 +13576,10 @@
       <c r="K311">
         <v>14</v>
       </c>
-      <c r="L311">
+      <c r="L311" s="5">
         <v>0.45030900000000001</v>
       </c>
-      <c r="M311">
+      <c r="M311" s="5">
         <v>0.35714299999999999</v>
       </c>
     </row>
@@ -13594,10 +13617,10 @@
       <c r="K312">
         <v>2</v>
       </c>
-      <c r="L312">
+      <c r="L312" s="5">
         <v>0.67451300000000003</v>
       </c>
-      <c r="M312">
+      <c r="M312" s="5">
         <v>1</v>
       </c>
     </row>
@@ -13635,10 +13658,10 @@
       <c r="K313">
         <v>2</v>
       </c>
-      <c r="L313">
+      <c r="L313" s="5">
         <v>0.33863300000000002</v>
       </c>
-      <c r="M313">
+      <c r="M313" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13676,10 +13699,10 @@
       <c r="K314">
         <v>18</v>
       </c>
-      <c r="L314">
+      <c r="L314" s="5">
         <v>0.55411299999999997</v>
       </c>
-      <c r="M314">
+      <c r="M314" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -13717,10 +13740,10 @@
       <c r="K315">
         <v>9</v>
       </c>
-      <c r="L315">
+      <c r="L315" s="5">
         <v>0.458063</v>
       </c>
-      <c r="M315">
+      <c r="M315" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -13758,10 +13781,10 @@
       <c r="K316">
         <v>4</v>
       </c>
-      <c r="L316">
+      <c r="L316" s="5">
         <v>0.51530500000000001</v>
       </c>
-      <c r="M316">
+      <c r="M316" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -13799,10 +13822,10 @@
       <c r="K317">
         <v>4</v>
       </c>
-      <c r="L317">
+      <c r="L317" s="5">
         <v>0.33825300000000003</v>
       </c>
-      <c r="M317">
+      <c r="M317" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13840,10 +13863,10 @@
       <c r="K318">
         <v>6</v>
       </c>
-      <c r="L318">
+      <c r="L318" s="5">
         <v>0.399891</v>
       </c>
-      <c r="M318">
+      <c r="M318" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -13881,10 +13904,10 @@
       <c r="K319">
         <v>6</v>
       </c>
-      <c r="L319">
+      <c r="L319" s="5">
         <v>0.354574</v>
       </c>
-      <c r="M319">
+      <c r="M319" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -13922,10 +13945,10 @@
       <c r="K320">
         <v>2</v>
       </c>
-      <c r="L320">
+      <c r="L320" s="5">
         <v>0.61663100000000004</v>
       </c>
-      <c r="M320">
+      <c r="M320" s="5">
         <v>1</v>
       </c>
     </row>
@@ -13963,10 +13986,10 @@
       <c r="K321">
         <v>8</v>
       </c>
-      <c r="L321">
+      <c r="L321" s="5">
         <v>0.65460399999999996</v>
       </c>
-      <c r="M321">
+      <c r="M321" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -14004,10 +14027,10 @@
       <c r="K322">
         <v>9</v>
       </c>
-      <c r="L322">
+      <c r="L322" s="5">
         <v>0.67349899999999996</v>
       </c>
-      <c r="M322">
+      <c r="M322" s="5">
         <v>1</v>
       </c>
     </row>
@@ -14045,10 +14068,10 @@
       <c r="K323">
         <v>14</v>
       </c>
-      <c r="L323">
+      <c r="L323" s="5">
         <v>0.52731499999999998</v>
       </c>
-      <c r="M323">
+      <c r="M323" s="5">
         <v>0.35714299999999999</v>
       </c>
     </row>
@@ -14086,10 +14109,10 @@
       <c r="K324">
         <v>8</v>
       </c>
-      <c r="L324">
+      <c r="L324" s="5">
         <v>0.563249</v>
       </c>
-      <c r="M324">
+      <c r="M324" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -14127,10 +14150,10 @@
       <c r="K325">
         <v>4</v>
       </c>
-      <c r="L325">
+      <c r="L325" s="5">
         <v>0.42117500000000002</v>
       </c>
-      <c r="M325">
+      <c r="M325" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -14168,10 +14191,10 @@
       <c r="K326">
         <v>8</v>
       </c>
-      <c r="L326">
+      <c r="L326" s="5">
         <v>0.43340800000000002</v>
       </c>
-      <c r="M326">
+      <c r="M326" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -14209,10 +14232,10 @@
       <c r="K327">
         <v>1</v>
       </c>
-      <c r="L327">
+      <c r="L327" s="5">
         <v>0.44512600000000002</v>
       </c>
-      <c r="M327">
+      <c r="M327" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14250,10 +14273,10 @@
       <c r="K328">
         <v>3</v>
       </c>
-      <c r="L328">
+      <c r="L328" s="5">
         <v>0.35758400000000001</v>
       </c>
-      <c r="M328">
+      <c r="M328" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14291,10 +14314,10 @@
       <c r="K329">
         <v>4</v>
       </c>
-      <c r="L329">
+      <c r="L329" s="5">
         <v>0.49784299999999998</v>
       </c>
-      <c r="M329">
+      <c r="M329" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -14332,10 +14355,10 @@
       <c r="K330">
         <v>2</v>
       </c>
-      <c r="L330">
+      <c r="L330" s="5">
         <v>0.52244199999999996</v>
       </c>
-      <c r="M330">
+      <c r="M330" s="5">
         <v>1</v>
       </c>
     </row>
@@ -14373,10 +14396,10 @@
       <c r="K331">
         <v>12</v>
       </c>
-      <c r="L331">
+      <c r="L331" s="5">
         <v>0.55643699999999996</v>
       </c>
-      <c r="M331">
+      <c r="M331" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -14414,10 +14437,10 @@
       <c r="K332">
         <v>3</v>
       </c>
-      <c r="L332">
+      <c r="L332" s="5">
         <v>0.55155100000000001</v>
       </c>
-      <c r="M332">
+      <c r="M332" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -14455,10 +14478,10 @@
       <c r="K333">
         <v>27</v>
       </c>
-      <c r="L333">
+      <c r="L333" s="5">
         <v>0.68552100000000005</v>
       </c>
-      <c r="M333">
+      <c r="M333" s="5">
         <v>0.77777799999999997</v>
       </c>
     </row>
@@ -14496,10 +14519,10 @@
       <c r="K334">
         <v>13</v>
       </c>
-      <c r="L334">
+      <c r="L334" s="5">
         <v>0.50931999999999999</v>
       </c>
-      <c r="M334">
+      <c r="M334" s="5">
         <v>0.30769200000000002</v>
       </c>
     </row>
@@ -14537,10 +14560,10 @@
       <c r="K335">
         <v>1</v>
       </c>
-      <c r="L335">
+      <c r="L335" s="5">
         <v>0.43171700000000002</v>
       </c>
-      <c r="M335">
+      <c r="M335" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14578,10 +14601,10 @@
       <c r="K336">
         <v>16</v>
       </c>
-      <c r="L336">
+      <c r="L336" s="5">
         <v>0.47971200000000003</v>
       </c>
-      <c r="M336">
+      <c r="M336" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -14619,10 +14642,10 @@
       <c r="K337">
         <v>5</v>
       </c>
-      <c r="L337">
+      <c r="L337" s="5">
         <v>0.32380500000000001</v>
       </c>
-      <c r="M337">
+      <c r="M337" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14660,10 +14683,10 @@
       <c r="K338">
         <v>5</v>
       </c>
-      <c r="L338">
+      <c r="L338" s="5">
         <v>0.58244300000000004</v>
       </c>
-      <c r="M338">
+      <c r="M338" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -14701,10 +14724,10 @@
       <c r="K339">
         <v>18</v>
       </c>
-      <c r="L339">
+      <c r="L339" s="5">
         <v>0.50758300000000001</v>
       </c>
-      <c r="M339">
+      <c r="M339" s="5">
         <v>0.27777800000000002</v>
       </c>
     </row>
@@ -14742,10 +14765,10 @@
       <c r="K340">
         <v>2</v>
       </c>
-      <c r="L340">
+      <c r="L340" s="5">
         <v>0.58965000000000001</v>
       </c>
-      <c r="M340">
+      <c r="M340" s="5">
         <v>1</v>
       </c>
     </row>
@@ -14783,10 +14806,10 @@
       <c r="K341">
         <v>7</v>
       </c>
-      <c r="L341">
+      <c r="L341" s="5">
         <v>0.416161</v>
       </c>
-      <c r="M341">
+      <c r="M341" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -14824,10 +14847,10 @@
       <c r="K342">
         <v>1</v>
       </c>
-      <c r="L342">
+      <c r="L342" s="5">
         <v>0.42550300000000002</v>
       </c>
-      <c r="M342">
+      <c r="M342" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14865,10 +14888,10 @@
       <c r="K343">
         <v>9</v>
       </c>
-      <c r="L343">
+      <c r="L343" s="5">
         <v>0.38997599999999999</v>
       </c>
-      <c r="M343">
+      <c r="M343" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -14906,10 +14929,10 @@
       <c r="K344">
         <v>36</v>
       </c>
-      <c r="L344">
+      <c r="L344" s="5">
         <v>0.423813</v>
       </c>
-      <c r="M344">
+      <c r="M344" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -14947,10 +14970,10 @@
       <c r="K345">
         <v>4</v>
       </c>
-      <c r="L345">
+      <c r="L345" s="5">
         <v>0.33358900000000002</v>
       </c>
-      <c r="M345">
+      <c r="M345" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -14988,10 +15011,10 @@
       <c r="K346">
         <v>1</v>
       </c>
-      <c r="L346">
+      <c r="L346" s="5">
         <v>0.75540600000000002</v>
       </c>
-      <c r="M346">
+      <c r="M346" s="5">
         <v>1</v>
       </c>
     </row>
@@ -15029,10 +15052,10 @@
       <c r="K347">
         <v>11</v>
       </c>
-      <c r="L347">
+      <c r="L347" s="5">
         <v>0.490396</v>
       </c>
-      <c r="M347">
+      <c r="M347" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -15070,10 +15093,10 @@
       <c r="K348">
         <v>10</v>
       </c>
-      <c r="L348">
+      <c r="L348" s="5">
         <v>0.54443799999999998</v>
       </c>
-      <c r="M348">
+      <c r="M348" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -15111,10 +15134,10 @@
       <c r="K349">
         <v>3</v>
       </c>
-      <c r="L349">
+      <c r="L349" s="5">
         <v>0.40087200000000001</v>
       </c>
-      <c r="M349">
+      <c r="M349" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -15152,10 +15175,10 @@
       <c r="K350">
         <v>8</v>
       </c>
-      <c r="L350">
+      <c r="L350" s="5">
         <v>0.50755499999999998</v>
       </c>
-      <c r="M350">
+      <c r="M350" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -15193,10 +15216,10 @@
       <c r="K351">
         <v>1</v>
       </c>
-      <c r="L351">
+      <c r="L351" s="5">
         <v>0.256994</v>
       </c>
-      <c r="M351">
+      <c r="M351" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15234,10 +15257,10 @@
       <c r="K352">
         <v>7</v>
       </c>
-      <c r="L352">
+      <c r="L352" s="5">
         <v>0.365118</v>
       </c>
-      <c r="M352">
+      <c r="M352" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -15275,10 +15298,10 @@
       <c r="K353">
         <v>1</v>
       </c>
-      <c r="L353">
+      <c r="L353" s="5">
         <v>0.44562000000000002</v>
       </c>
-      <c r="M353">
+      <c r="M353" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15316,10 +15339,10 @@
       <c r="K354">
         <v>9</v>
       </c>
-      <c r="L354">
+      <c r="L354" s="5">
         <v>0.44644499999999998</v>
       </c>
-      <c r="M354">
+      <c r="M354" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -15357,10 +15380,10 @@
       <c r="K355">
         <v>4</v>
       </c>
-      <c r="L355">
+      <c r="L355" s="5">
         <v>0.38553399999999999</v>
       </c>
-      <c r="M355">
+      <c r="M355" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15398,10 +15421,10 @@
       <c r="K356">
         <v>53</v>
       </c>
-      <c r="L356">
+      <c r="L356" s="5">
         <v>0.56440800000000002</v>
       </c>
-      <c r="M356">
+      <c r="M356" s="5">
         <v>0.73584899999999998</v>
       </c>
     </row>
@@ -15439,10 +15462,10 @@
       <c r="K357">
         <v>7</v>
       </c>
-      <c r="L357">
+      <c r="L357" s="5">
         <v>0.48353299999999999</v>
       </c>
-      <c r="M357">
+      <c r="M357" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -15480,10 +15503,10 @@
       <c r="K358">
         <v>5</v>
       </c>
-      <c r="L358">
+      <c r="L358" s="5">
         <v>0.59289000000000003</v>
       </c>
-      <c r="M358">
+      <c r="M358" s="5">
         <v>1</v>
       </c>
     </row>
@@ -15521,10 +15544,10 @@
       <c r="K359">
         <v>1</v>
       </c>
-      <c r="L359">
+      <c r="L359" s="5">
         <v>0.61714400000000003</v>
       </c>
-      <c r="M359">
+      <c r="M359" s="5">
         <v>1</v>
       </c>
     </row>
@@ -15562,10 +15585,10 @@
       <c r="K360">
         <v>27</v>
       </c>
-      <c r="L360">
+      <c r="L360" s="5">
         <v>0.44309100000000001</v>
       </c>
-      <c r="M360">
+      <c r="M360" s="5">
         <v>0.37036999999999998</v>
       </c>
     </row>
@@ -15603,10 +15626,10 @@
       <c r="K361">
         <v>14</v>
       </c>
-      <c r="L361">
+      <c r="L361" s="5">
         <v>0.43427199999999999</v>
       </c>
-      <c r="M361">
+      <c r="M361" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -15644,10 +15667,10 @@
       <c r="K362">
         <v>2</v>
       </c>
-      <c r="L362">
+      <c r="L362" s="5">
         <v>0.66219600000000001</v>
       </c>
-      <c r="M362">
+      <c r="M362" s="5">
         <v>1</v>
       </c>
     </row>
@@ -15685,10 +15708,10 @@
       <c r="K363">
         <v>2</v>
       </c>
-      <c r="L363">
+      <c r="L363" s="5">
         <v>0.367869</v>
       </c>
-      <c r="M363">
+      <c r="M363" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15726,10 +15749,10 @@
       <c r="K364">
         <v>18</v>
       </c>
-      <c r="L364">
+      <c r="L364" s="5">
         <v>0.514235</v>
       </c>
-      <c r="M364">
+      <c r="M364" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -15767,10 +15790,10 @@
       <c r="K365">
         <v>9</v>
       </c>
-      <c r="L365">
+      <c r="L365" s="5">
         <v>0.38896700000000001</v>
       </c>
-      <c r="M365">
+      <c r="M365" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -15808,10 +15831,10 @@
       <c r="K366">
         <v>4</v>
       </c>
-      <c r="L366">
+      <c r="L366" s="5">
         <v>0.46078200000000002</v>
       </c>
-      <c r="M366">
+      <c r="M366" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -15849,10 +15872,10 @@
       <c r="K367">
         <v>4</v>
       </c>
-      <c r="L367">
+      <c r="L367" s="5">
         <v>0.36552299999999999</v>
       </c>
-      <c r="M367">
+      <c r="M367" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15890,10 +15913,10 @@
       <c r="K368">
         <v>6</v>
       </c>
-      <c r="L368">
+      <c r="L368" s="5">
         <v>0.36418600000000001</v>
       </c>
-      <c r="M368">
+      <c r="M368" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -15931,10 +15954,10 @@
       <c r="K369">
         <v>6</v>
       </c>
-      <c r="L369">
+      <c r="L369" s="5">
         <v>0.34867599999999999</v>
       </c>
-      <c r="M369">
+      <c r="M369" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -15972,10 +15995,10 @@
       <c r="K370">
         <v>2</v>
       </c>
-      <c r="L370">
+      <c r="L370" s="5">
         <v>0.57235100000000005</v>
       </c>
-      <c r="M370">
+      <c r="M370" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -16013,10 +16036,10 @@
       <c r="K371">
         <v>8</v>
       </c>
-      <c r="L371">
+      <c r="L371" s="5">
         <v>0.58137899999999998</v>
       </c>
-      <c r="M371">
+      <c r="M371" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -16054,10 +16077,10 @@
       <c r="K372">
         <v>9</v>
       </c>
-      <c r="L372">
+      <c r="L372" s="5">
         <v>0.66241300000000003</v>
       </c>
-      <c r="M372">
+      <c r="M372" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16095,10 +16118,10 @@
       <c r="K373">
         <v>14</v>
       </c>
-      <c r="L373">
+      <c r="L373" s="5">
         <v>0.50875499999999996</v>
       </c>
-      <c r="M373">
+      <c r="M373" s="5">
         <v>0.35714299999999999</v>
       </c>
     </row>
@@ -16136,10 +16159,10 @@
       <c r="K374">
         <v>8</v>
       </c>
-      <c r="L374">
+      <c r="L374" s="5">
         <v>0.51901299999999995</v>
       </c>
-      <c r="M374">
+      <c r="M374" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -16177,10 +16200,10 @@
       <c r="K375">
         <v>4</v>
       </c>
-      <c r="L375">
+      <c r="L375" s="5">
         <v>0.38966400000000001</v>
       </c>
-      <c r="M375">
+      <c r="M375" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -16218,10 +16241,10 @@
       <c r="K376">
         <v>8</v>
       </c>
-      <c r="L376">
+      <c r="L376" s="5">
         <v>0.379915</v>
       </c>
-      <c r="M376">
+      <c r="M376" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -16259,10 +16282,10 @@
       <c r="K377">
         <v>1</v>
       </c>
-      <c r="L377">
+      <c r="L377" s="5">
         <v>0.42174299999999998</v>
       </c>
-      <c r="M377">
+      <c r="M377" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16300,10 +16323,10 @@
       <c r="K378">
         <v>3</v>
       </c>
-      <c r="L378">
+      <c r="L378" s="5">
         <v>0.35212199999999999</v>
       </c>
-      <c r="M378">
+      <c r="M378" s="5">
         <v>0.33333299999999999</v>
       </c>
     </row>
@@ -16341,10 +16364,10 @@
       <c r="K379">
         <v>4</v>
       </c>
-      <c r="L379">
+      <c r="L379" s="5">
         <v>0.40808699999999998</v>
       </c>
-      <c r="M379">
+      <c r="M379" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -16382,10 +16405,10 @@
       <c r="K380">
         <v>2</v>
       </c>
-      <c r="L380">
+      <c r="L380" s="5">
         <v>0.51572399999999996</v>
       </c>
-      <c r="M380">
+      <c r="M380" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -16423,10 +16446,10 @@
       <c r="K381">
         <v>12</v>
       </c>
-      <c r="L381">
+      <c r="L381" s="5">
         <v>0.510301</v>
       </c>
-      <c r="M381">
+      <c r="M381" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -16464,10 +16487,10 @@
       <c r="K382">
         <v>3</v>
       </c>
-      <c r="L382">
+      <c r="L382" s="5">
         <v>0.52997499999999997</v>
       </c>
-      <c r="M382">
+      <c r="M382" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -16505,10 +16528,10 @@
       <c r="K383">
         <v>27</v>
       </c>
-      <c r="L383">
+      <c r="L383" s="5">
         <v>0.57519200000000004</v>
       </c>
-      <c r="M383">
+      <c r="M383" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -16546,10 +16569,10 @@
       <c r="K384">
         <v>13</v>
       </c>
-      <c r="L384">
+      <c r="L384" s="5">
         <v>0.45602999999999999</v>
       </c>
-      <c r="M384">
+      <c r="M384" s="5">
         <v>0.230769</v>
       </c>
     </row>
@@ -16587,10 +16610,10 @@
       <c r="K385">
         <v>1</v>
       </c>
-      <c r="L385">
+      <c r="L385" s="5">
         <v>0.40926899999999999</v>
       </c>
-      <c r="M385">
+      <c r="M385" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16628,10 +16651,10 @@
       <c r="K386">
         <v>16</v>
       </c>
-      <c r="L386">
+      <c r="L386" s="5">
         <v>0.41208499999999998</v>
       </c>
-      <c r="M386">
+      <c r="M386" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -16669,10 +16692,10 @@
       <c r="K387">
         <v>5</v>
       </c>
-      <c r="L387">
+      <c r="L387" s="5">
         <v>0.28054299999999999</v>
       </c>
-      <c r="M387">
+      <c r="M387" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16710,10 +16733,10 @@
       <c r="K388">
         <v>5</v>
       </c>
-      <c r="L388">
+      <c r="L388" s="5">
         <v>0.57172000000000001</v>
       </c>
-      <c r="M388">
+      <c r="M388" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -16751,10 +16774,10 @@
       <c r="K389">
         <v>18</v>
       </c>
-      <c r="L389">
+      <c r="L389" s="5">
         <v>0.44497700000000001</v>
       </c>
-      <c r="M389">
+      <c r="M389" s="5">
         <v>0.27777800000000002</v>
       </c>
     </row>
@@ -16792,10 +16815,10 @@
       <c r="K390">
         <v>2</v>
       </c>
-      <c r="L390">
+      <c r="L390" s="5">
         <v>0.61102299999999998</v>
       </c>
-      <c r="M390">
+      <c r="M390" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16833,10 +16856,10 @@
       <c r="K391">
         <v>7</v>
       </c>
-      <c r="L391">
+      <c r="L391" s="5">
         <v>0.396013</v>
       </c>
-      <c r="M391">
+      <c r="M391" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -16874,10 +16897,10 @@
       <c r="K392">
         <v>1</v>
       </c>
-      <c r="L392">
+      <c r="L392" s="5">
         <v>0.334704</v>
       </c>
-      <c r="M392">
+      <c r="M392" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16915,10 +16938,10 @@
       <c r="K393">
         <v>9</v>
       </c>
-      <c r="L393">
+      <c r="L393" s="5">
         <v>0.369722</v>
       </c>
-      <c r="M393">
+      <c r="M393" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -16956,10 +16979,10 @@
       <c r="K394">
         <v>36</v>
       </c>
-      <c r="L394">
+      <c r="L394" s="5">
         <v>0.40527800000000003</v>
       </c>
-      <c r="M394">
+      <c r="M394" s="5">
         <v>0.30555599999999999</v>
       </c>
     </row>
@@ -16997,10 +17020,10 @@
       <c r="K395">
         <v>4</v>
       </c>
-      <c r="L395">
+      <c r="L395" s="5">
         <v>0.343279</v>
       </c>
-      <c r="M395">
+      <c r="M395" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17038,10 +17061,10 @@
       <c r="K396">
         <v>1</v>
       </c>
-      <c r="L396">
+      <c r="L396" s="5">
         <v>0.67484599999999995</v>
       </c>
-      <c r="M396">
+      <c r="M396" s="5">
         <v>1</v>
       </c>
     </row>
@@ -17079,10 +17102,10 @@
       <c r="K397">
         <v>11</v>
       </c>
-      <c r="L397">
+      <c r="L397" s="5">
         <v>0.45227699999999998</v>
       </c>
-      <c r="M397">
+      <c r="M397" s="5">
         <v>0.272727</v>
       </c>
     </row>
@@ -17120,10 +17143,10 @@
       <c r="K398">
         <v>10</v>
       </c>
-      <c r="L398">
+      <c r="L398" s="5">
         <v>0.53138099999999999</v>
       </c>
-      <c r="M398">
+      <c r="M398" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -17161,10 +17184,10 @@
       <c r="K399">
         <v>3</v>
       </c>
-      <c r="L399">
+      <c r="L399" s="5">
         <v>0.429064</v>
       </c>
-      <c r="M399">
+      <c r="M399" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17202,10 +17225,10 @@
       <c r="K400">
         <v>8</v>
       </c>
-      <c r="L400">
+      <c r="L400" s="5">
         <v>0.47201199999999999</v>
       </c>
-      <c r="M400">
+      <c r="M400" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -17243,10 +17266,10 @@
       <c r="K401">
         <v>1</v>
       </c>
-      <c r="L401">
+      <c r="L401" s="5">
         <v>0.25061499999999998</v>
       </c>
-      <c r="M401">
+      <c r="M401" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17284,10 +17307,10 @@
       <c r="K402">
         <v>7</v>
       </c>
-      <c r="L402">
+      <c r="L402" s="5">
         <v>0.38075100000000001</v>
       </c>
-      <c r="M402">
+      <c r="M402" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -17325,10 +17348,10 @@
       <c r="K403">
         <v>1</v>
       </c>
-      <c r="L403">
+      <c r="L403" s="5">
         <v>0.41719699999999998</v>
       </c>
-      <c r="M403">
+      <c r="M403" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17366,10 +17389,10 @@
       <c r="K404">
         <v>9</v>
       </c>
-      <c r="L404">
+      <c r="L404" s="5">
         <v>0.46583000000000002</v>
       </c>
-      <c r="M404">
+      <c r="M404" s="5">
         <v>0.44444400000000001</v>
       </c>
     </row>
@@ -17407,10 +17430,10 @@
       <c r="K405">
         <v>4</v>
       </c>
-      <c r="L405">
+      <c r="L405" s="5">
         <v>0.32078200000000001</v>
       </c>
-      <c r="M405">
+      <c r="M405" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17448,10 +17471,10 @@
       <c r="K406">
         <v>53</v>
       </c>
-      <c r="L406">
+      <c r="L406" s="5">
         <v>0.61549299999999996</v>
       </c>
-      <c r="M406">
+      <c r="M406" s="5">
         <v>0.73584899999999998</v>
       </c>
     </row>
@@ -17489,10 +17512,10 @@
       <c r="K407">
         <v>7</v>
       </c>
-      <c r="L407">
+      <c r="L407" s="5">
         <v>0.49513699999999999</v>
       </c>
-      <c r="M407">
+      <c r="M407" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -17530,10 +17553,10 @@
       <c r="K408">
         <v>5</v>
       </c>
-      <c r="L408">
+      <c r="L408" s="5">
         <v>0.62157899999999999</v>
       </c>
-      <c r="M408">
+      <c r="M408" s="5">
         <v>1</v>
       </c>
     </row>
@@ -17571,10 +17594,10 @@
       <c r="K409">
         <v>1</v>
       </c>
-      <c r="L409">
+      <c r="L409" s="5">
         <v>0.57546200000000003</v>
       </c>
-      <c r="M409">
+      <c r="M409" s="5">
         <v>1</v>
       </c>
     </row>
@@ -17612,10 +17635,10 @@
       <c r="K410">
         <v>27</v>
       </c>
-      <c r="L410">
+      <c r="L410" s="5">
         <v>0.46618599999999999</v>
       </c>
-      <c r="M410">
+      <c r="M410" s="5">
         <v>0.40740700000000002</v>
       </c>
     </row>
@@ -17653,10 +17676,10 @@
       <c r="K411">
         <v>14</v>
       </c>
-      <c r="L411">
+      <c r="L411" s="5">
         <v>0.44329800000000003</v>
       </c>
-      <c r="M411">
+      <c r="M411" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -17694,10 +17717,10 @@
       <c r="K412">
         <v>2</v>
       </c>
-      <c r="L412">
+      <c r="L412" s="5">
         <v>0.78694200000000003</v>
       </c>
-      <c r="M412">
+      <c r="M412" s="5">
         <v>1</v>
       </c>
     </row>
@@ -17735,10 +17758,10 @@
       <c r="K413">
         <v>2</v>
       </c>
-      <c r="L413">
+      <c r="L413" s="5">
         <v>0.31832500000000002</v>
       </c>
-      <c r="M413">
+      <c r="M413" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17776,10 +17799,10 @@
       <c r="K414">
         <v>18</v>
       </c>
-      <c r="L414">
+      <c r="L414" s="5">
         <v>0.54385899999999998</v>
       </c>
-      <c r="M414">
+      <c r="M414" s="5">
         <v>0.61111099999999996</v>
       </c>
     </row>
@@ -17817,10 +17840,10 @@
       <c r="K415">
         <v>9</v>
       </c>
-      <c r="L415">
+      <c r="L415" s="5">
         <v>0.40779399999999999</v>
       </c>
-      <c r="M415">
+      <c r="M415" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -17858,10 +17881,10 @@
       <c r="K416">
         <v>4</v>
       </c>
-      <c r="L416">
+      <c r="L416" s="5">
         <v>0.453204</v>
       </c>
-      <c r="M416">
+      <c r="M416" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -17899,10 +17922,10 @@
       <c r="K417">
         <v>4</v>
       </c>
-      <c r="L417">
+      <c r="L417" s="5">
         <v>0.35672399999999999</v>
       </c>
-      <c r="M417">
+      <c r="M417" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17940,10 +17963,10 @@
       <c r="K418">
         <v>6</v>
       </c>
-      <c r="L418">
+      <c r="L418" s="5">
         <v>0.36548000000000003</v>
       </c>
-      <c r="M418">
+      <c r="M418" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -17981,10 +18004,10 @@
       <c r="K419">
         <v>6</v>
       </c>
-      <c r="L419">
+      <c r="L419" s="5">
         <v>0.329872</v>
       </c>
-      <c r="M419">
+      <c r="M419" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -18022,10 +18045,10 @@
       <c r="K420">
         <v>2</v>
       </c>
-      <c r="L420">
+      <c r="L420" s="5">
         <v>0.51960799999999996</v>
       </c>
-      <c r="M420">
+      <c r="M420" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -18063,10 +18086,10 @@
       <c r="K421">
         <v>8</v>
       </c>
-      <c r="L421">
+      <c r="L421" s="5">
         <v>0.629722</v>
       </c>
-      <c r="M421">
+      <c r="M421" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -18104,10 +18127,10 @@
       <c r="K422">
         <v>9</v>
       </c>
-      <c r="L422">
+      <c r="L422" s="5">
         <v>0.69416199999999995</v>
       </c>
-      <c r="M422">
+      <c r="M422" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18145,10 +18168,10 @@
       <c r="K423">
         <v>14</v>
       </c>
-      <c r="L423">
+      <c r="L423" s="5">
         <v>0.49443100000000001</v>
       </c>
-      <c r="M423">
+      <c r="M423" s="5">
         <v>0.35714299999999999</v>
       </c>
     </row>
@@ -18186,10 +18209,10 @@
       <c r="K424">
         <v>8</v>
       </c>
-      <c r="L424">
+      <c r="L424" s="5">
         <v>0.573434</v>
       </c>
-      <c r="M424">
+      <c r="M424" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -18227,10 +18250,10 @@
       <c r="K425">
         <v>4</v>
       </c>
-      <c r="L425">
+      <c r="L425" s="5">
         <v>0.39788899999999999</v>
       </c>
-      <c r="M425">
+      <c r="M425" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -18268,10 +18291,10 @@
       <c r="K426">
         <v>8</v>
       </c>
-      <c r="L426">
+      <c r="L426" s="5">
         <v>0.39416099999999998</v>
       </c>
-      <c r="M426">
+      <c r="M426" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -18309,10 +18332,10 @@
       <c r="K427">
         <v>1</v>
       </c>
-      <c r="L427">
+      <c r="L427" s="5">
         <v>0.41915000000000002</v>
       </c>
-      <c r="M427">
+      <c r="M427" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18350,10 +18373,10 @@
       <c r="K428">
         <v>3</v>
       </c>
-      <c r="L428">
+      <c r="L428" s="5">
         <v>0.36336800000000002</v>
       </c>
-      <c r="M428">
+      <c r="M428" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18391,10 +18414,10 @@
       <c r="K429">
         <v>4</v>
       </c>
-      <c r="L429">
+      <c r="L429" s="5">
         <v>0.50497400000000003</v>
       </c>
-      <c r="M429">
+      <c r="M429" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -18432,10 +18455,10 @@
       <c r="K430">
         <v>2</v>
       </c>
-      <c r="L430">
+      <c r="L430" s="5">
         <v>0.51567200000000002</v>
       </c>
-      <c r="M430">
+      <c r="M430" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18473,10 +18496,10 @@
       <c r="K431">
         <v>12</v>
       </c>
-      <c r="L431">
+      <c r="L431" s="5">
         <v>0.54162500000000002</v>
       </c>
-      <c r="M431">
+      <c r="M431" s="5">
         <v>0.58333299999999999</v>
       </c>
     </row>
@@ -18514,10 +18537,10 @@
       <c r="K432">
         <v>3</v>
       </c>
-      <c r="L432">
+      <c r="L432" s="5">
         <v>0.56012899999999999</v>
       </c>
-      <c r="M432">
+      <c r="M432" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -18555,10 +18578,10 @@
       <c r="K433">
         <v>27</v>
       </c>
-      <c r="L433">
+      <c r="L433" s="5">
         <v>0.624668</v>
       </c>
-      <c r="M433">
+      <c r="M433" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -18596,10 +18619,10 @@
       <c r="K434">
         <v>13</v>
       </c>
-      <c r="L434">
+      <c r="L434" s="5">
         <v>0.466812</v>
       </c>
-      <c r="M434">
+      <c r="M434" s="5">
         <v>0.230769</v>
       </c>
     </row>
@@ -18637,10 +18660,10 @@
       <c r="K435">
         <v>1</v>
       </c>
-      <c r="L435">
+      <c r="L435" s="5">
         <v>0.43402800000000002</v>
       </c>
-      <c r="M435">
+      <c r="M435" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18678,10 +18701,10 @@
       <c r="K436">
         <v>16</v>
       </c>
-      <c r="L436">
+      <c r="L436" s="5">
         <v>0.41831000000000002</v>
       </c>
-      <c r="M436">
+      <c r="M436" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -18719,10 +18742,10 @@
       <c r="K437">
         <v>5</v>
       </c>
-      <c r="L437">
+      <c r="L437" s="5">
         <v>0.28478199999999998</v>
       </c>
-      <c r="M437">
+      <c r="M437" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18760,10 +18783,10 @@
       <c r="K438">
         <v>5</v>
       </c>
-      <c r="L438">
+      <c r="L438" s="5">
         <v>0.54751700000000003</v>
       </c>
-      <c r="M438">
+      <c r="M438" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -18801,10 +18824,10 @@
       <c r="K439">
         <v>18</v>
       </c>
-      <c r="L439">
+      <c r="L439" s="5">
         <v>0.471663</v>
       </c>
-      <c r="M439">
+      <c r="M439" s="5">
         <v>0.27777800000000002</v>
       </c>
     </row>
@@ -18842,10 +18865,10 @@
       <c r="K440">
         <v>2</v>
       </c>
-      <c r="L440">
+      <c r="L440" s="5">
         <v>0.65102300000000002</v>
       </c>
-      <c r="M440">
+      <c r="M440" s="5">
         <v>1</v>
       </c>
     </row>
@@ -18883,10 +18906,10 @@
       <c r="K441">
         <v>7</v>
       </c>
-      <c r="L441">
+      <c r="L441" s="5">
         <v>0.39466800000000002</v>
       </c>
-      <c r="M441">
+      <c r="M441" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -18924,10 +18947,10 @@
       <c r="K442">
         <v>1</v>
       </c>
-      <c r="L442">
+      <c r="L442" s="5">
         <v>0.35897200000000001</v>
       </c>
-      <c r="M442">
+      <c r="M442" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18965,10 +18988,10 @@
       <c r="K443">
         <v>9</v>
       </c>
-      <c r="L443">
+      <c r="L443" s="5">
         <v>0.35277700000000001</v>
       </c>
-      <c r="M443">
+      <c r="M443" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -19006,10 +19029,10 @@
       <c r="K444">
         <v>36</v>
       </c>
-      <c r="L444">
+      <c r="L444" s="5">
         <v>0.43424800000000002</v>
       </c>
-      <c r="M444">
+      <c r="M444" s="5">
         <v>0.30555599999999999</v>
       </c>
     </row>
@@ -19047,10 +19070,10 @@
       <c r="K445">
         <v>4</v>
       </c>
-      <c r="L445">
+      <c r="L445" s="5">
         <v>0.33393899999999999</v>
       </c>
-      <c r="M445">
+      <c r="M445" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19088,10 +19111,10 @@
       <c r="K446">
         <v>1</v>
       </c>
-      <c r="L446">
-        <v>1</v>
-      </c>
-      <c r="M446">
+      <c r="L446" s="5">
+        <v>1</v>
+      </c>
+      <c r="M446" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19129,10 +19152,10 @@
       <c r="K447">
         <v>11</v>
       </c>
-      <c r="L447">
+      <c r="L447" s="5">
         <v>0.48821199999999998</v>
       </c>
-      <c r="M447">
+      <c r="M447" s="5">
         <v>0.36363600000000001</v>
       </c>
     </row>
@@ -19170,10 +19193,10 @@
       <c r="K448">
         <v>10</v>
       </c>
-      <c r="L448">
+      <c r="L448" s="5">
         <v>0.53931200000000001</v>
       </c>
-      <c r="M448">
+      <c r="M448" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -19211,10 +19234,10 @@
       <c r="K449">
         <v>3</v>
       </c>
-      <c r="L449">
+      <c r="L449" s="5">
         <v>0.33526600000000001</v>
       </c>
-      <c r="M449">
+      <c r="M449" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19252,10 +19275,10 @@
       <c r="K450">
         <v>8</v>
       </c>
-      <c r="L450">
+      <c r="L450" s="5">
         <v>0.487819</v>
       </c>
-      <c r="M450">
+      <c r="M450" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -19293,10 +19316,10 @@
       <c r="K451">
         <v>1</v>
       </c>
-      <c r="L451">
+      <c r="L451" s="5">
         <v>0.32578699999999999</v>
       </c>
-      <c r="M451">
+      <c r="M451" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19334,10 +19357,10 @@
       <c r="K452">
         <v>7</v>
       </c>
-      <c r="L452">
+      <c r="L452" s="5">
         <v>0.39146399999999998</v>
       </c>
-      <c r="M452">
+      <c r="M452" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -19375,10 +19398,10 @@
       <c r="K453">
         <v>1</v>
       </c>
-      <c r="L453">
+      <c r="L453" s="5">
         <v>0.46693699999999999</v>
       </c>
-      <c r="M453">
+      <c r="M453" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19416,10 +19439,10 @@
       <c r="K454">
         <v>9</v>
       </c>
-      <c r="L454">
+      <c r="L454" s="5">
         <v>0.50752699999999995</v>
       </c>
-      <c r="M454">
+      <c r="M454" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -19457,10 +19480,10 @@
       <c r="K455">
         <v>4</v>
       </c>
-      <c r="L455">
+      <c r="L455" s="5">
         <v>0.36002699999999999</v>
       </c>
-      <c r="M455">
+      <c r="M455" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19498,10 +19521,10 @@
       <c r="K456">
         <v>53</v>
       </c>
-      <c r="L456">
+      <c r="L456" s="5">
         <v>0.63963899999999996</v>
       </c>
-      <c r="M456">
+      <c r="M456" s="5">
         <v>0.86792499999999995</v>
       </c>
     </row>
@@ -19539,10 +19562,10 @@
       <c r="K457">
         <v>7</v>
       </c>
-      <c r="L457">
+      <c r="L457" s="5">
         <v>0.55436300000000005</v>
       </c>
-      <c r="M457">
+      <c r="M457" s="5">
         <v>0.57142899999999996</v>
       </c>
     </row>
@@ -19580,10 +19603,10 @@
       <c r="K458">
         <v>5</v>
       </c>
-      <c r="L458">
+      <c r="L458" s="5">
         <v>0.61208300000000004</v>
       </c>
-      <c r="M458">
+      <c r="M458" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19621,10 +19644,10 @@
       <c r="K459">
         <v>1</v>
       </c>
-      <c r="L459">
+      <c r="L459" s="5">
         <v>0.64454</v>
       </c>
-      <c r="M459">
+      <c r="M459" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19662,10 +19685,10 @@
       <c r="K460">
         <v>27</v>
       </c>
-      <c r="L460">
+      <c r="L460" s="5">
         <v>0.50294300000000003</v>
       </c>
-      <c r="M460">
+      <c r="M460" s="5">
         <v>0.48148099999999999</v>
       </c>
     </row>
@@ -19703,10 +19726,10 @@
       <c r="K461">
         <v>14</v>
       </c>
-      <c r="L461">
+      <c r="L461" s="5">
         <v>0.47430099999999997</v>
       </c>
-      <c r="M461">
+      <c r="M461" s="5">
         <v>0.35714299999999999</v>
       </c>
     </row>
@@ -19744,10 +19767,10 @@
       <c r="K462">
         <v>2</v>
       </c>
-      <c r="L462">
+      <c r="L462" s="5">
         <v>0.767239</v>
       </c>
-      <c r="M462">
+      <c r="M462" s="5">
         <v>1</v>
       </c>
     </row>
@@ -19785,10 +19808,10 @@
       <c r="K463">
         <v>2</v>
       </c>
-      <c r="L463">
+      <c r="L463" s="5">
         <v>0.36034100000000002</v>
       </c>
-      <c r="M463">
+      <c r="M463" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19826,10 +19849,10 @@
       <c r="K464">
         <v>18</v>
       </c>
-      <c r="L464">
+      <c r="L464" s="5">
         <v>0.61115799999999998</v>
       </c>
-      <c r="M464">
+      <c r="M464" s="5">
         <v>0.72222200000000003</v>
       </c>
     </row>
@@ -19867,10 +19890,10 @@
       <c r="K465">
         <v>9</v>
       </c>
-      <c r="L465">
+      <c r="L465" s="5">
         <v>0.44486999999999999</v>
       </c>
-      <c r="M465">
+      <c r="M465" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -19908,10 +19931,10 @@
       <c r="K466">
         <v>4</v>
       </c>
-      <c r="L466">
+      <c r="L466" s="5">
         <v>0.52049199999999995</v>
       </c>
-      <c r="M466">
+      <c r="M466" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -19949,10 +19972,10 @@
       <c r="K467">
         <v>4</v>
       </c>
-      <c r="L467">
+      <c r="L467" s="5">
         <v>0.45192100000000002</v>
       </c>
-      <c r="M467">
+      <c r="M467" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -19990,10 +20013,10 @@
       <c r="K468">
         <v>6</v>
       </c>
-      <c r="L468">
+      <c r="L468" s="5">
         <v>0.39590799999999998</v>
       </c>
-      <c r="M468">
+      <c r="M468" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -20031,10 +20054,10 @@
       <c r="K469">
         <v>6</v>
       </c>
-      <c r="L469">
+      <c r="L469" s="5">
         <v>0.37621199999999999</v>
       </c>
-      <c r="M469">
+      <c r="M469" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -20072,10 +20095,10 @@
       <c r="K470">
         <v>2</v>
       </c>
-      <c r="L470">
+      <c r="L470" s="5">
         <v>0.57874999999999999</v>
       </c>
-      <c r="M470">
+      <c r="M470" s="5">
         <v>1</v>
       </c>
     </row>
@@ -20113,10 +20136,10 @@
       <c r="K471">
         <v>8</v>
       </c>
-      <c r="L471">
+      <c r="L471" s="5">
         <v>0.669242</v>
       </c>
-      <c r="M471">
+      <c r="M471" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -20154,10 +20177,10 @@
       <c r="K472">
         <v>9</v>
       </c>
-      <c r="L472">
+      <c r="L472" s="5">
         <v>0.68415599999999999</v>
       </c>
-      <c r="M472">
+      <c r="M472" s="5">
         <v>1</v>
       </c>
     </row>
@@ -20195,10 +20218,10 @@
       <c r="K473">
         <v>14</v>
       </c>
-      <c r="L473">
+      <c r="L473" s="5">
         <v>0.53335100000000002</v>
       </c>
-      <c r="M473">
+      <c r="M473" s="5">
         <v>0.538462</v>
       </c>
     </row>
@@ -20236,10 +20259,10 @@
       <c r="K474">
         <v>8</v>
       </c>
-      <c r="L474">
+      <c r="L474" s="5">
         <v>0.55797300000000005</v>
       </c>
-      <c r="M474">
+      <c r="M474" s="5">
         <v>0.625</v>
       </c>
     </row>
@@ -20277,10 +20300,10 @@
       <c r="K475">
         <v>4</v>
       </c>
-      <c r="L475">
+      <c r="L475" s="5">
         <v>0.42862299999999998</v>
       </c>
-      <c r="M475">
+      <c r="M475" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -20318,10 +20341,10 @@
       <c r="K476">
         <v>8</v>
       </c>
-      <c r="L476">
+      <c r="L476" s="5">
         <v>0.43577500000000002</v>
       </c>
-      <c r="M476">
+      <c r="M476" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -20359,10 +20382,10 @@
       <c r="K477">
         <v>1</v>
       </c>
-      <c r="L477">
+      <c r="L477" s="5">
         <v>0.47614299999999998</v>
       </c>
-      <c r="M477">
+      <c r="M477" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20400,10 +20423,10 @@
       <c r="K478">
         <v>3</v>
       </c>
-      <c r="L478">
+      <c r="L478" s="5">
         <v>0.37970799999999999</v>
       </c>
-      <c r="M478">
+      <c r="M478" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20441,10 +20464,10 @@
       <c r="K479">
         <v>4</v>
       </c>
-      <c r="L479">
+      <c r="L479" s="5">
         <v>0.52768300000000001</v>
       </c>
-      <c r="M479">
+      <c r="M479" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -20482,10 +20505,10 @@
       <c r="K480">
         <v>2</v>
       </c>
-      <c r="L480">
+      <c r="L480" s="5">
         <v>0.55556300000000003</v>
       </c>
-      <c r="M480">
+      <c r="M480" s="5">
         <v>1</v>
       </c>
     </row>
@@ -20523,10 +20546,10 @@
       <c r="K481">
         <v>12</v>
       </c>
-      <c r="L481">
+      <c r="L481" s="5">
         <v>0.60770100000000005</v>
       </c>
-      <c r="M481">
+      <c r="M481" s="5">
         <v>0.91666700000000001</v>
       </c>
     </row>
@@ -20564,10 +20587,10 @@
       <c r="K482">
         <v>3</v>
       </c>
-      <c r="L482">
+      <c r="L482" s="5">
         <v>0.60417200000000004</v>
       </c>
-      <c r="M482">
+      <c r="M482" s="5">
         <v>1</v>
       </c>
     </row>
@@ -20605,10 +20628,10 @@
       <c r="K483">
         <v>27</v>
       </c>
-      <c r="L483">
+      <c r="L483" s="5">
         <v>0.65132599999999996</v>
       </c>
-      <c r="M483">
+      <c r="M483" s="5">
         <v>0.77777799999999997</v>
       </c>
     </row>
@@ -20646,10 +20669,10 @@
       <c r="K484">
         <v>13</v>
       </c>
-      <c r="L484">
+      <c r="L484" s="5">
         <v>0.49962200000000001</v>
       </c>
-      <c r="M484">
+      <c r="M484" s="5">
         <v>0.230769</v>
       </c>
     </row>
@@ -20687,10 +20710,10 @@
       <c r="K485">
         <v>1</v>
       </c>
-      <c r="L485">
+      <c r="L485" s="5">
         <v>0.37141999999999997</v>
       </c>
-      <c r="M485">
+      <c r="M485" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20728,10 +20751,10 @@
       <c r="K486">
         <v>16</v>
       </c>
-      <c r="L486">
+      <c r="L486" s="5">
         <v>0.47614899999999999</v>
       </c>
-      <c r="M486">
+      <c r="M486" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -20769,10 +20792,10 @@
       <c r="K487">
         <v>5</v>
       </c>
-      <c r="L487">
+      <c r="L487" s="5">
         <v>0.36967899999999998</v>
       </c>
-      <c r="M487">
+      <c r="M487" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -20810,10 +20833,10 @@
       <c r="K488">
         <v>5</v>
       </c>
-      <c r="L488">
+      <c r="L488" s="5">
         <v>0.60172700000000001</v>
       </c>
-      <c r="M488">
+      <c r="M488" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -20851,10 +20874,10 @@
       <c r="K489">
         <v>18</v>
       </c>
-      <c r="L489">
+      <c r="L489" s="5">
         <v>0.54057299999999997</v>
       </c>
-      <c r="M489">
+      <c r="M489" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -20892,10 +20915,10 @@
       <c r="K490">
         <v>2</v>
       </c>
-      <c r="L490">
+      <c r="L490" s="5">
         <v>0.65136000000000005</v>
       </c>
-      <c r="M490">
+      <c r="M490" s="5">
         <v>1</v>
       </c>
     </row>
@@ -20933,10 +20956,10 @@
       <c r="K491">
         <v>7</v>
       </c>
-      <c r="L491">
+      <c r="L491" s="5">
         <v>0.44983099999999998</v>
       </c>
-      <c r="M491">
+      <c r="M491" s="5">
         <v>0.28571400000000002</v>
       </c>
     </row>
@@ -20974,10 +20997,10 @@
       <c r="K492">
         <v>1</v>
       </c>
-      <c r="L492">
+      <c r="L492" s="5">
         <v>0.37387300000000001</v>
       </c>
-      <c r="M492">
+      <c r="M492" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21015,10 +21038,10 @@
       <c r="K493">
         <v>9</v>
       </c>
-      <c r="L493">
+      <c r="L493" s="5">
         <v>0.39812199999999998</v>
       </c>
-      <c r="M493">
+      <c r="M493" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -21056,10 +21079,10 @@
       <c r="K494">
         <v>36</v>
       </c>
-      <c r="L494">
+      <c r="L494" s="5">
         <v>0.47232499999999999</v>
       </c>
-      <c r="M494">
+      <c r="M494" s="5">
         <v>0.36111100000000002</v>
       </c>
     </row>
@@ -21097,10 +21120,10 @@
       <c r="K495">
         <v>4</v>
       </c>
-      <c r="L495">
+      <c r="L495" s="5">
         <v>0.37728499999999998</v>
       </c>
-      <c r="M495">
+      <c r="M495" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -21138,10 +21161,10 @@
       <c r="K496">
         <v>1</v>
       </c>
-      <c r="L496">
+      <c r="L496" s="5">
         <v>0.72727299999999995</v>
       </c>
-      <c r="M496">
+      <c r="M496" s="5">
         <v>1</v>
       </c>
     </row>
@@ -21179,10 +21202,10 @@
       <c r="K497">
         <v>11</v>
       </c>
-      <c r="L497">
+      <c r="L497" s="5">
         <v>0.55662699999999998</v>
       </c>
-      <c r="M497">
+      <c r="M497" s="5">
         <v>0.63636400000000004</v>
       </c>
     </row>
@@ -21220,10 +21243,10 @@
       <c r="K498">
         <v>10</v>
       </c>
-      <c r="L498">
+      <c r="L498" s="5">
         <v>0.63366800000000001</v>
       </c>
-      <c r="M498">
+      <c r="M498" s="5">
         <v>0.7</v>
       </c>
     </row>
@@ -21261,10 +21284,10 @@
       <c r="K499">
         <v>3</v>
       </c>
-      <c r="L499">
+      <c r="L499" s="5">
         <v>0.41028900000000001</v>
       </c>
-      <c r="M499">
+      <c r="M499" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21302,10 +21325,10 @@
       <c r="K500">
         <v>8</v>
       </c>
-      <c r="L500">
+      <c r="L500" s="5">
         <v>0.51160700000000003</v>
       </c>
-      <c r="M500">
+      <c r="M500" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -21343,10 +21366,10 @@
       <c r="K501">
         <v>1</v>
       </c>
-      <c r="L501">
+      <c r="L501" s="5">
         <v>0.31885999999999998</v>
       </c>
-      <c r="M501">
+      <c r="M501" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21384,10 +21407,10 @@
       <c r="K502">
         <v>7</v>
       </c>
-      <c r="L502">
+      <c r="L502" s="5">
         <v>0.355597</v>
       </c>
-      <c r="M502">
+      <c r="M502" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -21425,10 +21448,10 @@
       <c r="K503">
         <v>1</v>
       </c>
-      <c r="L503">
+      <c r="L503" s="5">
         <v>0.45416000000000001</v>
       </c>
-      <c r="M503">
+      <c r="M503" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21466,10 +21489,10 @@
       <c r="K504">
         <v>9</v>
       </c>
-      <c r="L504">
+      <c r="L504" s="5">
         <v>0.49859300000000001</v>
       </c>
-      <c r="M504">
+      <c r="M504" s="5">
         <v>0.55555600000000005</v>
       </c>
     </row>
@@ -21507,10 +21530,10 @@
       <c r="K505">
         <v>4</v>
       </c>
-      <c r="L505">
+      <c r="L505" s="5">
         <v>0.342947</v>
       </c>
-      <c r="M505">
+      <c r="M505" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21548,10 +21571,10 @@
       <c r="K506">
         <v>53</v>
       </c>
-      <c r="L506">
+      <c r="L506" s="5">
         <v>0.63195000000000001</v>
       </c>
-      <c r="M506">
+      <c r="M506" s="5">
         <v>0.79245299999999996</v>
       </c>
     </row>
@@ -21589,10 +21612,10 @@
       <c r="K507">
         <v>7</v>
       </c>
-      <c r="L507">
+      <c r="L507" s="5">
         <v>0.54919399999999996</v>
       </c>
-      <c r="M507">
+      <c r="M507" s="5">
         <v>0.57142899999999996</v>
       </c>
     </row>
@@ -21630,10 +21653,10 @@
       <c r="K508">
         <v>5</v>
       </c>
-      <c r="L508">
+      <c r="L508" s="5">
         <v>0.60184000000000004</v>
       </c>
-      <c r="M508">
+      <c r="M508" s="5">
         <v>1</v>
       </c>
     </row>
@@ -21671,10 +21694,10 @@
       <c r="K509">
         <v>1</v>
       </c>
-      <c r="L509">
+      <c r="L509" s="5">
         <v>0.58894400000000002</v>
       </c>
-      <c r="M509">
+      <c r="M509" s="5">
         <v>1</v>
       </c>
     </row>
@@ -21712,10 +21735,10 @@
       <c r="K510">
         <v>27</v>
       </c>
-      <c r="L510">
+      <c r="L510" s="5">
         <v>0.47449599999999997</v>
       </c>
-      <c r="M510">
+      <c r="M510" s="5">
         <v>0.40740700000000002</v>
       </c>
     </row>
@@ -21753,10 +21776,10 @@
       <c r="K511">
         <v>14</v>
       </c>
-      <c r="L511">
+      <c r="L511" s="5">
         <v>0.490037</v>
       </c>
-      <c r="M511">
+      <c r="M511" s="5">
         <v>0.42857099999999998</v>
       </c>
     </row>
@@ -21794,10 +21817,10 @@
       <c r="K512">
         <v>2</v>
       </c>
-      <c r="L512">
+      <c r="L512" s="5">
         <v>0.69564300000000001</v>
       </c>
-      <c r="M512">
+      <c r="M512" s="5">
         <v>1</v>
       </c>
     </row>
@@ -21835,10 +21858,10 @@
       <c r="K513">
         <v>2</v>
       </c>
-      <c r="L513">
+      <c r="L513" s="5">
         <v>0.31279200000000001</v>
       </c>
-      <c r="M513">
+      <c r="M513" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21876,10 +21899,10 @@
       <c r="K514">
         <v>18</v>
       </c>
-      <c r="L514">
+      <c r="L514" s="5">
         <v>0.57475200000000004</v>
       </c>
-      <c r="M514">
+      <c r="M514" s="5">
         <v>0.72222200000000003</v>
       </c>
     </row>
@@ -21917,10 +21940,10 @@
       <c r="K515">
         <v>9</v>
       </c>
-      <c r="L515">
+      <c r="L515" s="5">
         <v>0.40730899999999998</v>
       </c>
-      <c r="M515">
+      <c r="M515" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -21958,10 +21981,10 @@
       <c r="K516">
         <v>4</v>
       </c>
-      <c r="L516">
+      <c r="L516" s="5">
         <v>0.47004800000000002</v>
       </c>
-      <c r="M516">
+      <c r="M516" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -21999,10 +22022,10 @@
       <c r="K517">
         <v>4</v>
       </c>
-      <c r="L517">
+      <c r="L517" s="5">
         <v>0.41799900000000001</v>
       </c>
-      <c r="M517">
+      <c r="M517" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -22040,10 +22063,10 @@
       <c r="K518">
         <v>6</v>
       </c>
-      <c r="L518">
+      <c r="L518" s="5">
         <v>0.350302</v>
       </c>
-      <c r="M518">
+      <c r="M518" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -22081,10 +22104,10 @@
       <c r="K519">
         <v>6</v>
       </c>
-      <c r="L519">
+      <c r="L519" s="5">
         <v>0.38340999999999997</v>
       </c>
-      <c r="M519">
+      <c r="M519" s="5">
         <v>0.16666700000000001</v>
       </c>
     </row>
@@ -22122,10 +22145,10 @@
       <c r="K520">
         <v>2</v>
       </c>
-      <c r="L520">
+      <c r="L520" s="5">
         <v>0.57954799999999995</v>
       </c>
-      <c r="M520">
+      <c r="M520" s="5">
         <v>1</v>
       </c>
     </row>
@@ -22163,10 +22186,10 @@
       <c r="K521">
         <v>8</v>
       </c>
-      <c r="L521">
+      <c r="L521" s="5">
         <v>0.65039499999999995</v>
       </c>
-      <c r="M521">
+      <c r="M521" s="5">
         <v>0.875</v>
       </c>
     </row>
@@ -22204,10 +22227,10 @@
       <c r="K522">
         <v>9</v>
       </c>
-      <c r="L522">
+      <c r="L522" s="5">
         <v>0.67698700000000001</v>
       </c>
-      <c r="M522">
+      <c r="M522" s="5">
         <v>1</v>
       </c>
     </row>
@@ -22245,10 +22268,10 @@
       <c r="K523">
         <v>14</v>
       </c>
-      <c r="L523">
+      <c r="L523" s="5">
         <v>0.50665700000000002</v>
       </c>
-      <c r="M523">
+      <c r="M523" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -22286,10 +22309,10 @@
       <c r="K524">
         <v>8</v>
       </c>
-      <c r="L524">
+      <c r="L524" s="5">
         <v>0.513131</v>
       </c>
-      <c r="M524">
+      <c r="M524" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -22327,10 +22350,10 @@
       <c r="K525">
         <v>4</v>
       </c>
-      <c r="L525">
+      <c r="L525" s="5">
         <v>0.396783</v>
       </c>
-      <c r="M525">
+      <c r="M525" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -22368,10 +22391,10 @@
       <c r="K526">
         <v>8</v>
       </c>
-      <c r="L526">
+      <c r="L526" s="5">
         <v>0.40472599999999997</v>
       </c>
-      <c r="M526">
+      <c r="M526" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -22409,10 +22432,10 @@
       <c r="K527">
         <v>1</v>
       </c>
-      <c r="L527">
+      <c r="L527" s="5">
         <v>0.43613600000000002</v>
       </c>
-      <c r="M527">
+      <c r="M527" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22450,10 +22473,10 @@
       <c r="K528">
         <v>3</v>
       </c>
-      <c r="L528">
+      <c r="L528" s="5">
         <v>0.357769</v>
       </c>
-      <c r="M528">
+      <c r="M528" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22491,10 +22514,10 @@
       <c r="K529">
         <v>4</v>
       </c>
-      <c r="L529">
+      <c r="L529" s="5">
         <v>0.51219800000000004</v>
       </c>
-      <c r="M529">
+      <c r="M529" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -22532,10 +22555,10 @@
       <c r="K530">
         <v>2</v>
       </c>
-      <c r="L530">
+      <c r="L530" s="5">
         <v>0.538968</v>
       </c>
-      <c r="M530">
+      <c r="M530" s="5">
         <v>1</v>
       </c>
     </row>
@@ -22573,10 +22596,10 @@
       <c r="K531">
         <v>12</v>
       </c>
-      <c r="L531">
+      <c r="L531" s="5">
         <v>0.57942199999999999</v>
       </c>
-      <c r="M531">
+      <c r="M531" s="5">
         <v>0.83333299999999999</v>
       </c>
     </row>
@@ -22614,10 +22637,10 @@
       <c r="K532">
         <v>3</v>
       </c>
-      <c r="L532">
+      <c r="L532" s="5">
         <v>0.54869299999999999</v>
       </c>
-      <c r="M532">
+      <c r="M532" s="5">
         <v>0.66666700000000001</v>
       </c>
     </row>
@@ -22655,10 +22678,10 @@
       <c r="K533">
         <v>27</v>
       </c>
-      <c r="L533">
+      <c r="L533" s="5">
         <v>0.62071299999999996</v>
       </c>
-      <c r="M533">
+      <c r="M533" s="5">
         <v>0.703704</v>
       </c>
     </row>
@@ -22696,10 +22719,10 @@
       <c r="K534">
         <v>13</v>
       </c>
-      <c r="L534">
+      <c r="L534" s="5">
         <v>0.48923</v>
       </c>
-      <c r="M534">
+      <c r="M534" s="5">
         <v>0.38461499999999998</v>
       </c>
     </row>
@@ -22737,10 +22760,10 @@
       <c r="K535">
         <v>1</v>
       </c>
-      <c r="L535">
+      <c r="L535" s="5">
         <v>0.28546100000000002</v>
       </c>
-      <c r="M535">
+      <c r="M535" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22778,10 +22801,10 @@
       <c r="K536">
         <v>16</v>
       </c>
-      <c r="L536">
+      <c r="L536" s="5">
         <v>0.429757</v>
       </c>
-      <c r="M536">
+      <c r="M536" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -22819,10 +22842,10 @@
       <c r="K537">
         <v>5</v>
       </c>
-      <c r="L537">
+      <c r="L537" s="5">
         <v>0.313</v>
       </c>
-      <c r="M537">
+      <c r="M537" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22860,10 +22883,10 @@
       <c r="K538">
         <v>5</v>
       </c>
-      <c r="L538">
+      <c r="L538" s="5">
         <v>0.57072299999999998</v>
       </c>
-      <c r="M538">
+      <c r="M538" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -22901,10 +22924,10 @@
       <c r="K539">
         <v>18</v>
       </c>
-      <c r="L539">
+      <c r="L539" s="5">
         <v>0.49366599999999999</v>
       </c>
-      <c r="M539">
+      <c r="M539" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -22942,10 +22965,10 @@
       <c r="K540">
         <v>2</v>
       </c>
-      <c r="L540">
+      <c r="L540" s="5">
         <v>0.64191500000000001</v>
       </c>
-      <c r="M540">
+      <c r="M540" s="5">
         <v>1</v>
       </c>
     </row>
@@ -22983,10 +23006,10 @@
       <c r="K541">
         <v>7</v>
       </c>
-      <c r="L541">
+      <c r="L541" s="5">
         <v>0.43253900000000001</v>
       </c>
-      <c r="M541">
+      <c r="M541" s="5">
         <v>0.14285700000000001</v>
       </c>
     </row>
@@ -23024,10 +23047,10 @@
       <c r="K542">
         <v>1</v>
       </c>
-      <c r="L542">
+      <c r="L542" s="5">
         <v>0.3</v>
       </c>
-      <c r="M542">
+      <c r="M542" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23065,10 +23088,10 @@
       <c r="K543">
         <v>9</v>
       </c>
-      <c r="L543">
+      <c r="L543" s="5">
         <v>0.38136999999999999</v>
       </c>
-      <c r="M543">
+      <c r="M543" s="5">
         <v>0.222222</v>
       </c>
     </row>
@@ -23106,10 +23129,10 @@
       <c r="K544">
         <v>36</v>
       </c>
-      <c r="L544">
+      <c r="L544" s="5">
         <v>0.45241599999999998</v>
       </c>
-      <c r="M544">
+      <c r="M544" s="5">
         <v>0.36111100000000002</v>
       </c>
     </row>
@@ -23147,10 +23170,10 @@
       <c r="K545">
         <v>4</v>
       </c>
-      <c r="L545">
+      <c r="L545" s="5">
         <v>0.366815</v>
       </c>
-      <c r="M545">
+      <c r="M545" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23188,10 +23211,10 @@
       <c r="K546">
         <v>1</v>
       </c>
-      <c r="L546">
+      <c r="L546" s="5">
         <v>0.71364700000000003</v>
       </c>
-      <c r="M546">
+      <c r="M546" s="5">
         <v>1</v>
       </c>
     </row>
@@ -23229,10 +23252,10 @@
       <c r="K547">
         <v>11</v>
       </c>
-      <c r="L547">
+      <c r="L547" s="5">
         <v>0.53566999999999998</v>
       </c>
-      <c r="M547">
+      <c r="M547" s="5">
         <v>0.63636400000000004</v>
       </c>
     </row>
@@ -23270,10 +23293,10 @@
       <c r="K548">
         <v>10</v>
       </c>
-      <c r="L548">
+      <c r="L548" s="5">
         <v>0.58368200000000003</v>
       </c>
-      <c r="M548">
+      <c r="M548" s="5">
         <v>0.7</v>
       </c>
     </row>
@@ -23311,10 +23334,10 @@
       <c r="K549">
         <v>3</v>
       </c>
-      <c r="L549">
+      <c r="L549" s="5">
         <v>0.32437300000000002</v>
       </c>
-      <c r="M549">
+      <c r="M549" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23352,10 +23375,10 @@
       <c r="K550">
         <v>8</v>
       </c>
-      <c r="L550">
+      <c r="L550" s="5">
         <v>0.48532700000000001</v>
       </c>
-      <c r="M550">
+      <c r="M550" s="5">
         <v>0.375</v>
       </c>
     </row>
@@ -23393,10 +23416,10 @@
       <c r="K551">
         <v>1</v>
       </c>
-      <c r="L551">
+      <c r="L551" s="5">
         <v>0.26386799999999999</v>
       </c>
-      <c r="M551">
+      <c r="M551" s="5">
         <v>0</v>
       </c>
     </row>

--- a/data/analysis/elections.xlsx
+++ b/data/analysis/elections.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8E118-05E0-5946-AFD2-D017BE81B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E75749-6790-9045-B21E-2CF7519193F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{4D9468ED-8B83-C14F-97C4-1642043F26B9}"/>
+    <workbookView xWindow="13880" yWindow="11860" windowWidth="27260" windowHeight="16940" xr2:uid="{4D9468ED-8B83-C14F-97C4-1642043F26B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$551</definedName>
     <definedName name="elections" localSheetId="0">Sheet1!$A$1:$M$551</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -810,17 +810,17 @@
   <dimension ref="A1:M551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
+      <selection pane="bottomRight" activeCell="L309" sqref="L309:L409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -23424,6 +23424,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C551" xr:uid="{39F4B669-9A12-7A4C-871E-B9CBFF07A3B9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M551">
     <sortCondition ref="A2:A551"/>
     <sortCondition ref="B2:B551"/>
